--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>799970.552031107</v>
+        <v>795785.7308819372</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6463284.468165416</v>
+        <v>6463284.468165412</v>
       </c>
     </row>
     <row r="9">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>426.1801855231356</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>244.9043102021001</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1539,7 +1539,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
@@ -1548,7 +1548,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>38.0199749218942</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>11.31461330144462</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>301.9818465976535</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>319.4193177289428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811442</v>
+        <v>53.04109050775109</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>186.5964345085684</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>192.3085274337936</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>212.1298045009528</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2019,10 +2019,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>92.41091399209228</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>88.24074300591408</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>263.9127822410222</v>
       </c>
       <c r="X20" t="n">
-        <v>335.3717788786062</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>124.9554984777215</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>8.894178641793609</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>161.3333495930652</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>7.551388524899614</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>37.62017337824731</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>256.471413082989</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.10999954803941</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T24" t="n">
         <v>124.5995722140058</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>63.89199599260702</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>16.13626634197823</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>239.619400782111</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>24.61663349534566</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>37.62017337824732</v>
+        <v>37.6201733782473</v>
       </c>
       <c r="T26" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>261.6031361728359</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.10999954803941</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T27" t="n">
         <v>124.5995722140058</v>
@@ -2721,19 +2721,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>90.05906126569811</v>
+        <v>16.13626634197823</v>
       </c>
       <c r="H28" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.01901167430098</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.619400782111</v>
       </c>
       <c r="U28" t="n">
         <v>275.6001441286783</v>
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>203.8151370958184</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H29" t="n">
         <v>265.9270524809863</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>37.62017337824731</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V29" t="n">
-        <v>81.87335632103341</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.10999954803941</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T30" t="n">
         <v>124.5995722140058</v>
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>76.0376162388966</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I31" t="n">
-        <v>16.13626634197691</v>
+        <v>61.01901167430097</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>239.619400782111</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6001441286783</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>408.4167613672208</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>37.62017337824731</v>
       </c>
       <c r="T32" t="n">
-        <v>189.9634469432761</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.10999954803941</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T33" t="n">
         <v>124.5995722140058</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.31864798858254</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>61.01901167430098</v>
+        <v>48.93154695867202</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T34" t="n">
         <v>239.619400782111</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12.95776766956007</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>295.6396126677075</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.62017337824732</v>
+        <v>37.62017337824731</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.10999954803941</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T36" t="n">
         <v>124.5995722140058</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>93.83008002255562</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>61.01901167430098</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.13626634197784</v>
       </c>
       <c r="T37" t="n">
         <v>239.619400782111</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3505,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>309.9710858742222</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3517,10 +3517,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>14.48624776816674</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.10999954803941</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T39" t="n">
         <v>124.5995722140058</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>156.8035762352479</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>130.593315014692</v>
       </c>
       <c r="I40" t="n">
-        <v>61.01901167430098</v>
+        <v>61.01901167430097</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>98.11212622822104</v>
+        <v>239.619400782111</v>
       </c>
       <c r="U40" t="n">
         <v>275.6001441286783</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>200.725950777441</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.62017337824732</v>
+        <v>37.62017337824731</v>
       </c>
       <c r="T41" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>242.7931268709069</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.10999954803941</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T42" t="n">
         <v>124.5995722140058</v>
@@ -3900,25 +3900,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>90.34783152201906</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.0457076940604</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I43" t="n">
-        <v>61.01901167430098</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>142.1447028811674</v>
       </c>
       <c r="T43" t="n">
-        <v>57.60666858632997</v>
+        <v>239.619400782111</v>
       </c>
       <c r="U43" t="n">
         <v>275.6001441286783</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>269.0899110899114</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>37.6201733782473</v>
       </c>
       <c r="T44" t="n">
         <v>209.1845183053605</v>
@@ -4036,13 +4036,13 @@
         <v>256.471413082989</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>248.7275664987678</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.10999954803941</v>
+        <v>43.1099995480394</v>
       </c>
       <c r="T45" t="n">
         <v>124.5995722140058</v>
@@ -4140,13 +4140,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>61.65644000157882</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.0457076940604</v>
@@ -4155,7 +4155,7 @@
         <v>130.593315014692</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>30.89266837859795</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T46" t="n">
         <v>239.619400782111</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6001441286783</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>747.4131388869995</v>
+        <v>294.5846426621872</v>
       </c>
       <c r="C11" t="n">
-        <v>316.9281030050443</v>
+        <v>294.5846426621872</v>
       </c>
       <c r="D11" t="n">
-        <v>316.9281030050443</v>
+        <v>294.5846426621872</v>
       </c>
       <c r="E11" t="n">
-        <v>316.9281030050443</v>
+        <v>294.5846426621872</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5071,22 +5071,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792597</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.712709371907</v>
+        <v>702.8707663625338</v>
       </c>
       <c r="Y11" t="n">
-        <v>1173.712709371907</v>
+        <v>294.5846426621872</v>
       </c>
     </row>
     <row r="12">
@@ -5102,13 +5102,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>718.3318041774809</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>552.4538113790036</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>382.6958076297408</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>382.6958076297408</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>217.9546272422592</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>85.61056662157515</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895474</v>
@@ -5202,10 +5202,10 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L13" t="n">
-        <v>935.5229194890233</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M13" t="n">
         <v>1066.127311827553</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2348.898675123045</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2070.512043171788</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1783.556535042219</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W13" t="n">
-        <v>1511.53013062851</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1511.53013062851</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.110459942618</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1578.072968758064</v>
+        <v>755.070575821621</v>
       </c>
       <c r="C14" t="n">
-        <v>1578.072968758064</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D14" t="n">
-        <v>1578.072968758064</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.298223916359</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G14" t="n">
         <v>316.9281030050443</v>
@@ -5275,16 +5275,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5308,22 +5308,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W14" t="n">
-        <v>2319.861207662534</v>
+        <v>1181.370146306529</v>
       </c>
       <c r="X14" t="n">
-        <v>1900.718744241845</v>
+        <v>1181.370146306529</v>
       </c>
       <c r="Y14" t="n">
-        <v>1578.072968758064</v>
+        <v>1181.370146306529</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663908</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495865</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.9041403765402</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927018</v>
       </c>
       <c r="G15" t="n">
         <v>79.1492015823585</v>
@@ -5354,19 +5354,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987882</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280532</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>959.9477806029472</v>
+        <v>950.4293531379337</v>
       </c>
       <c r="C16" t="n">
-        <v>787.3860690861721</v>
+        <v>777.8676416211587</v>
       </c>
       <c r="D16" t="n">
-        <v>621.5080762876948</v>
+        <v>611.9896488226814</v>
       </c>
       <c r="E16" t="n">
-        <v>451.7500725384321</v>
+        <v>442.2316450734186</v>
       </c>
       <c r="F16" t="n">
-        <v>275.0430185001883</v>
+        <v>265.5245910351748</v>
       </c>
       <c r="G16" t="n">
-        <v>110.3018381127067</v>
+        <v>100.7834106476932</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>100.7834106476932</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728196</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N16" t="n">
-        <v>1842.060047552669</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O16" t="n">
-        <v>1959.825928900431</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W16" t="n">
-        <v>1567.667316986178</v>
+        <v>1423.240778490413</v>
       </c>
       <c r="X16" t="n">
-        <v>1379.186070007826</v>
+        <v>1177.849023823826</v>
       </c>
       <c r="Y16" t="n">
-        <v>1151.766399321934</v>
+        <v>950.4293531379337</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>640.9602806813904</v>
+        <v>1318.626460527759</v>
       </c>
       <c r="C17" t="n">
-        <v>640.9602806813904</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D17" t="n">
-        <v>446.7092428694776</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E17" t="n">
         <v>446.7092428694776</v>
@@ -5506,22 +5506,22 @@
         <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5536,31 +5536,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2108.089956131647</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U17" t="n">
-        <v>1849.019264653161</v>
+        <v>2146.055047648795</v>
       </c>
       <c r="V17" t="n">
-        <v>1486.402314586987</v>
+        <v>2146.055047648795</v>
       </c>
       <c r="W17" t="n">
-        <v>1486.402314586987</v>
+        <v>2146.055047648795</v>
       </c>
       <c r="X17" t="n">
-        <v>1067.259851166298</v>
+        <v>1726.912584228106</v>
       </c>
       <c r="Y17" t="n">
-        <v>1067.259851166298</v>
+        <v>1318.626460527759</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043032</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1053.292138170717</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C19" t="n">
-        <v>880.7304266539421</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D19" t="n">
-        <v>714.8524338554648</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E19" t="n">
-        <v>545.094430106202</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3873760679583</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G19" t="n">
-        <v>203.6461956804767</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>419.8232506543501</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M19" t="n">
-        <v>550.4276429928797</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954414</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527957</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2271.1955138054</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351144</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399887</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270317</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856609</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.711808856609</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y19" t="n">
-        <v>1053.292138170717</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1616.712750254118</v>
+        <v>1582.440696732936</v>
       </c>
       <c r="C20" t="n">
-        <v>1178.570277437541</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D20" t="n">
-        <v>1178.570277437541</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E20" t="n">
-        <v>744.7955325958366</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001351</v>
@@ -5755,10 +5755,10 @@
         <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5773,31 +5773,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.472122858771</v>
+        <v>1582.440696732936</v>
       </c>
       <c r="X20" t="n">
-        <v>1616.712750254118</v>
+        <v>1582.440696732936</v>
       </c>
       <c r="Y20" t="n">
-        <v>1616.712750254118</v>
+        <v>1582.440696732936</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043088</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960908</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987875</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>852.4895006216354</v>
+        <v>858.3289888817353</v>
       </c>
       <c r="C22" t="n">
-        <v>679.9277891048604</v>
+        <v>685.7672773649603</v>
       </c>
       <c r="D22" t="n">
-        <v>514.0497963063831</v>
+        <v>519.889284566483</v>
       </c>
       <c r="E22" t="n">
-        <v>344.2917925571204</v>
+        <v>350.1312808172202</v>
       </c>
       <c r="F22" t="n">
-        <v>344.2917925571204</v>
+        <v>173.4242267789764</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545215</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.331138940781</v>
+        <v>554.1085916646776</v>
       </c>
       <c r="M22" t="n">
-        <v>1317.603786189002</v>
+        <v>1138.289667082993</v>
       </c>
       <c r="N22" t="n">
-        <v>1887.361501150537</v>
+        <v>1708.047382044527</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498299</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2351.343558617643</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>2109.096334521049</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U22" t="n">
-        <v>1830.709702569792</v>
+        <v>2081.94094549648</v>
       </c>
       <c r="V22" t="n">
-        <v>1543.754194440223</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W22" t="n">
-        <v>1271.727790026514</v>
+        <v>1522.959032953202</v>
       </c>
       <c r="X22" t="n">
-        <v>1271.727790026514</v>
+        <v>1277.567278286614</v>
       </c>
       <c r="Y22" t="n">
-        <v>1044.308119340623</v>
+        <v>1050.147607600722</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1046.03504203539</v>
+        <v>1793.224949504091</v>
       </c>
       <c r="C23" t="n">
-        <v>1046.03504203539</v>
+        <v>1355.082476687514</v>
       </c>
       <c r="D23" t="n">
-        <v>1046.03504203539</v>
+        <v>919.1726918619586</v>
       </c>
       <c r="E23" t="n">
-        <v>612.2602971936849</v>
+        <v>485.3979470202538</v>
       </c>
       <c r="F23" t="n">
-        <v>449.2973178067504</v>
+        <v>57.5305174294615</v>
       </c>
       <c r="G23" t="n">
-        <v>49.9028522527952</v>
+        <v>57.5305174294615</v>
       </c>
       <c r="H23" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I23" t="n">
-        <v>125.1921461296497</v>
+        <v>125.1921461296499</v>
       </c>
       <c r="J23" t="n">
         <v>291.8416560478772</v>
       </c>
       <c r="K23" t="n">
-        <v>541.6060719863822</v>
+        <v>541.6060719863824</v>
       </c>
       <c r="L23" t="n">
-        <v>851.4609156385202</v>
+        <v>851.4609156385205</v>
       </c>
       <c r="M23" t="n">
         <v>1196.234131838216</v>
@@ -6004,37 +6004,37 @@
         <v>1546.586139125323</v>
       </c>
       <c r="O23" t="n">
-        <v>1877.413604793267</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P23" t="n">
-        <v>2159.767192776931</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q23" t="n">
-        <v>2371.802978448967</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R23" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S23" t="n">
-        <v>2495.14261263976</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="T23" t="n">
-        <v>2495.14261263976</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="U23" t="n">
-        <v>2236.080579222599</v>
+        <v>2198.080404093057</v>
       </c>
       <c r="V23" t="n">
-        <v>1873.463629156426</v>
+        <v>2198.080404093057</v>
       </c>
       <c r="W23" t="n">
-        <v>1873.463629156426</v>
+        <v>1793.224949504091</v>
       </c>
       <c r="X23" t="n">
-        <v>1454.321165735736</v>
+        <v>1793.224949504091</v>
       </c>
       <c r="Y23" t="n">
-        <v>1046.03504203539</v>
+        <v>1793.224949504091</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G24" t="n">
-        <v>81.28625329494412</v>
+        <v>81.28625329494413</v>
       </c>
       <c r="H24" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I24" t="n">
-        <v>86.07360363779611</v>
+        <v>86.07360363779614</v>
       </c>
       <c r="J24" t="n">
-        <v>90.34627405869738</v>
+        <v>185.3289100816566</v>
       </c>
       <c r="K24" t="n">
-        <v>259.9894019238666</v>
+        <v>354.9720379468259</v>
       </c>
       <c r="L24" t="n">
-        <v>488.0955226008691</v>
+        <v>583.0781586238285</v>
       </c>
       <c r="M24" t="n">
-        <v>754.284606360296</v>
+        <v>849.2672423832555</v>
       </c>
       <c r="N24" t="n">
-        <v>1027.518923096496</v>
+        <v>1122.501559119455</v>
       </c>
       <c r="O24" t="n">
-        <v>1277.474942253457</v>
+        <v>1372.457578276416</v>
       </c>
       <c r="P24" t="n">
-        <v>1478.086684138829</v>
+        <v>1573.069320161788</v>
       </c>
       <c r="Q24" t="n">
         <v>1612.190320866099</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.8076143555542</v>
+        <v>751.1068732868453</v>
       </c>
       <c r="C25" t="n">
-        <v>562.2459028387791</v>
+        <v>578.5451617700702</v>
       </c>
       <c r="D25" t="n">
-        <v>396.3679100403018</v>
+        <v>412.6671689715929</v>
       </c>
       <c r="E25" t="n">
-        <v>226.609906291039</v>
+        <v>242.9091652223302</v>
       </c>
       <c r="F25" t="n">
-        <v>49.9028522527952</v>
+        <v>66.20211118408636</v>
       </c>
       <c r="G25" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="H25" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I25" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="J25" t="n">
-        <v>112.1724417969993</v>
+        <v>198.7521269616892</v>
       </c>
       <c r="K25" t="n">
-        <v>214.500505880184</v>
+        <v>301.0801910448739</v>
       </c>
       <c r="L25" t="n">
-        <v>481.4807048550857</v>
+        <v>432.0248827519478</v>
       </c>
       <c r="M25" t="n">
-        <v>1079.027389640565</v>
+        <v>1029.571567537427</v>
       </c>
       <c r="N25" t="n">
-        <v>1656.066185185709</v>
+        <v>1236.396935959929</v>
       </c>
       <c r="O25" t="n">
-        <v>1780.557322929477</v>
+        <v>1780.557322929479</v>
       </c>
       <c r="P25" t="n">
-        <v>2234.58789174823</v>
+        <v>2234.587891748231</v>
       </c>
       <c r="Q25" t="n">
-        <v>2476.532137525724</v>
+        <v>2476.532137525725</v>
       </c>
       <c r="R25" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S25" t="n">
-        <v>2351.562104678985</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T25" t="n">
-        <v>2109.522305909175</v>
+        <v>2253.102813869952</v>
       </c>
       <c r="U25" t="n">
-        <v>1831.138321940814</v>
+        <v>1974.71882990159</v>
       </c>
       <c r="V25" t="n">
-        <v>1544.182813811244</v>
+        <v>1687.76332177202</v>
       </c>
       <c r="W25" t="n">
-        <v>1272.156409397536</v>
+        <v>1415.736917358312</v>
       </c>
       <c r="X25" t="n">
-        <v>1026.764654730948</v>
+        <v>1170.345162691724</v>
       </c>
       <c r="Y25" t="n">
-        <v>799.3449840450562</v>
+        <v>942.9254920058324</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1205.023497368456</v>
+        <v>1347.454811510848</v>
       </c>
       <c r="C26" t="n">
-        <v>1205.023497368456</v>
+        <v>1347.454811510848</v>
       </c>
       <c r="D26" t="n">
-        <v>1180.158211009521</v>
+        <v>911.5450266852923</v>
       </c>
       <c r="E26" t="n">
-        <v>746.3834661678161</v>
+        <v>477.7702818435875</v>
       </c>
       <c r="F26" t="n">
-        <v>318.5160365770238</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="G26" t="n">
-        <v>318.5160365770238</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="H26" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I26" t="n">
-        <v>125.1921461296496</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J26" t="n">
-        <v>291.8416560478768</v>
+        <v>291.8416560478767</v>
       </c>
       <c r="K26" t="n">
         <v>541.6060719863819</v>
       </c>
       <c r="L26" t="n">
-        <v>851.4609156385199</v>
+        <v>851.4609156385203</v>
       </c>
       <c r="M26" t="n">
-        <v>1196.234131838215</v>
+        <v>1196.234131838216</v>
       </c>
       <c r="N26" t="n">
-        <v>1546.586139125322</v>
+        <v>1546.586139125323</v>
       </c>
       <c r="O26" t="n">
-        <v>1877.413604793267</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P26" t="n">
         <v>2159.767192776931</v>
       </c>
       <c r="Q26" t="n">
-        <v>2371.802978448967</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R26" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S26" t="n">
-        <v>2457.142437510217</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="T26" t="n">
-        <v>2245.84494427248</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="U26" t="n">
-        <v>1986.782910855319</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="V26" t="n">
-        <v>1624.165960789145</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="W26" t="n">
-        <v>1624.165960789145</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="X26" t="n">
-        <v>1205.023497368456</v>
+        <v>2037.999974089529</v>
       </c>
       <c r="Y26" t="n">
-        <v>1205.023497368456</v>
+        <v>1773.754381995755</v>
       </c>
     </row>
     <row r="27">
@@ -6296,25 +6296,25 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G27" t="n">
-        <v>81.28625329494412</v>
+        <v>81.28625329494413</v>
       </c>
       <c r="H27" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I27" t="n">
-        <v>49.9028522527952</v>
+        <v>86.07360363779615</v>
       </c>
       <c r="J27" t="n">
-        <v>90.34627405869738</v>
+        <v>185.3289100816566</v>
       </c>
       <c r="K27" t="n">
-        <v>259.9894019238666</v>
+        <v>259.9894019238661</v>
       </c>
       <c r="L27" t="n">
-        <v>488.0955226008691</v>
+        <v>488.0955226008687</v>
       </c>
       <c r="M27" t="n">
-        <v>754.284606360296</v>
+        <v>754.2846063602958</v>
       </c>
       <c r="N27" t="n">
         <v>1027.518923096496</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.5661640958783</v>
+        <v>751.1068732868453</v>
       </c>
       <c r="C28" t="n">
-        <v>677.0044525791033</v>
+        <v>578.5451617700702</v>
       </c>
       <c r="D28" t="n">
-        <v>511.126459780626</v>
+        <v>412.6671689715929</v>
       </c>
       <c r="E28" t="n">
-        <v>511.126459780626</v>
+        <v>242.9091652223302</v>
       </c>
       <c r="F28" t="n">
-        <v>334.4194057423822</v>
+        <v>66.20211118408636</v>
       </c>
       <c r="G28" t="n">
-        <v>243.4506569891518</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="H28" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I28" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="J28" t="n">
-        <v>198.7521269616891</v>
+        <v>112.1724417969993</v>
       </c>
       <c r="K28" t="n">
-        <v>302.4225792822555</v>
+        <v>214.500505880184</v>
       </c>
       <c r="L28" t="n">
-        <v>851.5771527572904</v>
+        <v>577.5111244639787</v>
       </c>
       <c r="M28" t="n">
-        <v>1449.123837542769</v>
+        <v>1175.057809249458</v>
       </c>
       <c r="N28" t="n">
-        <v>1583.903829930269</v>
+        <v>1752.096604794603</v>
       </c>
       <c r="O28" t="n">
-        <v>2128.064216899819</v>
+        <v>2296.256991764152</v>
       </c>
       <c r="P28" t="n">
-        <v>2234.58789174823</v>
+        <v>2402.780666612563</v>
       </c>
       <c r="Q28" t="n">
-        <v>2476.532137525724</v>
+        <v>2476.532137525725</v>
       </c>
       <c r="R28" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S28" t="n">
-        <v>2351.562104678985</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T28" t="n">
-        <v>2351.562104678985</v>
+        <v>2253.102813869952</v>
       </c>
       <c r="U28" t="n">
-        <v>2073.178120710623</v>
+        <v>1974.71882990159</v>
       </c>
       <c r="V28" t="n">
-        <v>1786.222612581053</v>
+        <v>1687.76332177202</v>
       </c>
       <c r="W28" t="n">
-        <v>1514.196208167345</v>
+        <v>1415.736917358312</v>
       </c>
       <c r="X28" t="n">
-        <v>1268.804453500757</v>
+        <v>1170.345162691724</v>
       </c>
       <c r="Y28" t="n">
-        <v>1041.384782814866</v>
+        <v>942.9254920058324</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1180.158211009521</v>
+        <v>1789.79428039271</v>
       </c>
       <c r="C29" t="n">
-        <v>1180.158211009521</v>
+        <v>1351.651807576133</v>
       </c>
       <c r="D29" t="n">
-        <v>1180.158211009521</v>
+        <v>1351.651807576133</v>
       </c>
       <c r="E29" t="n">
-        <v>746.3834661678161</v>
+        <v>1145.777931721771</v>
       </c>
       <c r="F29" t="n">
-        <v>318.5160365770238</v>
+        <v>717.910502130979</v>
       </c>
       <c r="G29" t="n">
         <v>318.5160365770238</v>
       </c>
       <c r="H29" t="n">
-        <v>49.90285225279519</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I29" t="n">
-        <v>125.1921461296493</v>
+        <v>125.1921461296492</v>
       </c>
       <c r="J29" t="n">
-        <v>291.8416560478766</v>
+        <v>291.8416560478765</v>
       </c>
       <c r="K29" t="n">
         <v>541.6060719863817</v>
       </c>
       <c r="L29" t="n">
-        <v>851.4609156385196</v>
+        <v>851.4609156385199</v>
       </c>
       <c r="M29" t="n">
         <v>1196.234131838215</v>
@@ -6481,34 +6481,34 @@
         <v>1877.413604793267</v>
       </c>
       <c r="P29" t="n">
-        <v>2159.76719277693</v>
+        <v>2159.767192776931</v>
       </c>
       <c r="Q29" t="n">
-        <v>2371.802978448966</v>
+        <v>2371.802978448967</v>
       </c>
       <c r="R29" t="n">
         <v>2495.14261263976</v>
       </c>
       <c r="S29" t="n">
-        <v>2495.14261263976</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="T29" t="n">
-        <v>2495.14261263976</v>
+        <v>2457.142437510217</v>
       </c>
       <c r="U29" t="n">
-        <v>2495.14261263976</v>
+        <v>2198.080404093057</v>
       </c>
       <c r="V29" t="n">
-        <v>2412.442252719524</v>
+        <v>2198.080404093057</v>
       </c>
       <c r="W29" t="n">
-        <v>2007.586798130557</v>
+        <v>2198.080404093057</v>
       </c>
       <c r="X29" t="n">
-        <v>1588.444334709868</v>
+        <v>2198.080404093057</v>
       </c>
       <c r="Y29" t="n">
-        <v>1180.158211009521</v>
+        <v>1789.79428039271</v>
       </c>
     </row>
     <row r="30">
@@ -6533,25 +6533,25 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G30" t="n">
-        <v>81.2862532949441</v>
+        <v>81.28625329494412</v>
       </c>
       <c r="H30" t="n">
-        <v>49.90285225279519</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="I30" t="n">
-        <v>86.0736036377961</v>
+        <v>86.07360363779613</v>
       </c>
       <c r="J30" t="n">
-        <v>185.3289100816565</v>
+        <v>90.34627405869703</v>
       </c>
       <c r="K30" t="n">
-        <v>354.9720379468258</v>
+        <v>259.9894019238663</v>
       </c>
       <c r="L30" t="n">
-        <v>583.0781586238284</v>
+        <v>488.0955226008688</v>
       </c>
       <c r="M30" t="n">
-        <v>849.2672423832553</v>
+        <v>754.2846063602959</v>
       </c>
       <c r="N30" t="n">
         <v>1027.518923096496</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>751.1068732868439</v>
+        <v>993.1466720566536</v>
       </c>
       <c r="C31" t="n">
-        <v>578.5451617700688</v>
+        <v>820.5849605398786</v>
       </c>
       <c r="D31" t="n">
-        <v>412.6671689715915</v>
+        <v>654.7069677414013</v>
       </c>
       <c r="E31" t="n">
-        <v>242.9091652223288</v>
+        <v>484.9489639921385</v>
       </c>
       <c r="F31" t="n">
-        <v>66.202111184085</v>
+        <v>408.1432910235561</v>
       </c>
       <c r="G31" t="n">
-        <v>66.202111184085</v>
+        <v>243.4506569891517</v>
       </c>
       <c r="H31" t="n">
-        <v>66.202111184085</v>
+        <v>111.5382175803719</v>
       </c>
       <c r="I31" t="n">
-        <v>49.90285225279519</v>
+        <v>49.9028522527952</v>
       </c>
       <c r="J31" t="n">
-        <v>112.1724417969992</v>
+        <v>198.7521269616891</v>
       </c>
       <c r="K31" t="n">
-        <v>374.5849345376949</v>
+        <v>446.5664327569035</v>
       </c>
       <c r="L31" t="n">
-        <v>923.7395080127297</v>
+        <v>577.5111244639774</v>
       </c>
       <c r="M31" t="n">
-        <v>1521.286192798209</v>
+        <v>1175.057809249457</v>
       </c>
       <c r="N31" t="n">
-        <v>1656.066185185709</v>
+        <v>1752.096604794601</v>
       </c>
       <c r="O31" t="n">
-        <v>1780.557322929477</v>
+        <v>2296.256991764151</v>
       </c>
       <c r="P31" t="n">
-        <v>2234.587891748229</v>
+        <v>2402.780666612562</v>
       </c>
       <c r="Q31" t="n">
         <v>2476.532137525724</v>
@@ -6651,22 +6651,22 @@
         <v>2495.14261263976</v>
       </c>
       <c r="T31" t="n">
-        <v>2253.10281386995</v>
+        <v>2495.14261263976</v>
       </c>
       <c r="U31" t="n">
-        <v>1974.718829901588</v>
+        <v>2216.758628671398</v>
       </c>
       <c r="V31" t="n">
-        <v>1687.763321772019</v>
+        <v>1929.803120541829</v>
       </c>
       <c r="W31" t="n">
-        <v>1415.73691735831</v>
+        <v>1657.77671612812</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.345162691723</v>
+        <v>1412.384961461533</v>
       </c>
       <c r="Y31" t="n">
-        <v>942.9254920058311</v>
+        <v>1184.965290775641</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>449.2973178067504</v>
+        <v>2030.842867025311</v>
       </c>
       <c r="C32" t="n">
-        <v>449.2973178067504</v>
+        <v>1592.700394208734</v>
       </c>
       <c r="D32" t="n">
-        <v>449.2973178067504</v>
+        <v>1180.158211009521</v>
       </c>
       <c r="E32" t="n">
-        <v>449.2973178067504</v>
+        <v>746.3834661678161</v>
       </c>
       <c r="F32" t="n">
-        <v>449.2973178067504</v>
+        <v>318.5160365770239</v>
       </c>
       <c r="G32" t="n">
-        <v>49.9028522527952</v>
+        <v>318.5160365770239</v>
       </c>
       <c r="H32" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I32" t="n">
-        <v>125.1921461296497</v>
+        <v>125.1921461296499</v>
       </c>
       <c r="J32" t="n">
         <v>291.8416560478772</v>
       </c>
       <c r="K32" t="n">
-        <v>541.6060719863823</v>
+        <v>541.6060719863824</v>
       </c>
       <c r="L32" t="n">
-        <v>851.4609156385201</v>
+        <v>851.4609156385205</v>
       </c>
       <c r="M32" t="n">
         <v>1196.234131838216</v>
@@ -6715,37 +6715,37 @@
         <v>1546.586139125323</v>
       </c>
       <c r="O32" t="n">
-        <v>1877.413604793267</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P32" t="n">
-        <v>2159.767192776931</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q32" t="n">
-        <v>2371.802978448967</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R32" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S32" t="n">
-        <v>2495.14261263976</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="T32" t="n">
-        <v>2303.260343000087</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="U32" t="n">
-        <v>2044.198309582927</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="V32" t="n">
-        <v>1681.581359516753</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="W32" t="n">
-        <v>1276.725904927786</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="X32" t="n">
-        <v>857.5834415070969</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="Y32" t="n">
-        <v>449.2973178067504</v>
+        <v>2457.142437510218</v>
       </c>
     </row>
     <row r="33">
@@ -6770,25 +6770,25 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G33" t="n">
-        <v>81.28625329494412</v>
+        <v>81.28625329494413</v>
       </c>
       <c r="H33" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I33" t="n">
-        <v>86.07360363779611</v>
+        <v>86.07360363779614</v>
       </c>
       <c r="J33" t="n">
-        <v>185.3289100816565</v>
+        <v>185.3289100816566</v>
       </c>
       <c r="K33" t="n">
-        <v>354.9720379468258</v>
+        <v>354.9720379468259</v>
       </c>
       <c r="L33" t="n">
-        <v>488.0955226008691</v>
+        <v>488.0955226008688</v>
       </c>
       <c r="M33" t="n">
-        <v>754.284606360296</v>
+        <v>754.2846063602959</v>
       </c>
       <c r="N33" t="n">
         <v>1027.518923096496</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3409990880714</v>
+        <v>607.5263653260699</v>
       </c>
       <c r="C34" t="n">
-        <v>743.7792875712963</v>
+        <v>434.9646538092949</v>
       </c>
       <c r="D34" t="n">
-        <v>577.901294772819</v>
+        <v>269.0866610108176</v>
       </c>
       <c r="E34" t="n">
-        <v>408.1432910235562</v>
+        <v>99.32865726155484</v>
       </c>
       <c r="F34" t="n">
-        <v>408.1432910235562</v>
+        <v>99.32865726155484</v>
       </c>
       <c r="G34" t="n">
-        <v>243.4506569891518</v>
+        <v>99.32865726155484</v>
       </c>
       <c r="H34" t="n">
-        <v>111.538217580372</v>
+        <v>99.32865726155484</v>
       </c>
       <c r="I34" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="J34" t="n">
         <v>112.1724417969993</v>
       </c>
       <c r="K34" t="n">
-        <v>214.500505880184</v>
+        <v>489.2589604513196</v>
       </c>
       <c r="L34" t="n">
-        <v>345.4451975872578</v>
+        <v>1038.413533926355</v>
       </c>
       <c r="M34" t="n">
-        <v>942.9918823727369</v>
+        <v>1269.809718436761</v>
       </c>
       <c r="N34" t="n">
-        <v>1520.030677917881</v>
+        <v>1404.589710824261</v>
       </c>
       <c r="O34" t="n">
-        <v>2064.191064887431</v>
+        <v>1948.75009779381</v>
       </c>
       <c r="P34" t="n">
-        <v>2234.58789174823</v>
+        <v>2402.780666612563</v>
       </c>
       <c r="Q34" t="n">
-        <v>2476.532137525724</v>
+        <v>2476.532137525725</v>
       </c>
       <c r="R34" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S34" t="n">
-        <v>2495.14261263976</v>
+        <v>2351.562104678986</v>
       </c>
       <c r="T34" t="n">
-        <v>2253.102813869951</v>
+        <v>2109.522305909176</v>
       </c>
       <c r="U34" t="n">
-        <v>1974.718829901589</v>
+        <v>1831.138321940814</v>
       </c>
       <c r="V34" t="n">
-        <v>1687.763321772019</v>
+        <v>1544.182813811245</v>
       </c>
       <c r="W34" t="n">
-        <v>1415.736917358311</v>
+        <v>1272.156409397536</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.345162691723</v>
+        <v>1026.764654730949</v>
       </c>
       <c r="Y34" t="n">
-        <v>942.9254920058315</v>
+        <v>799.3449840450571</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2184.99174988138</v>
+        <v>1611.700403604621</v>
       </c>
       <c r="C35" t="n">
-        <v>1746.849277064803</v>
+        <v>1611.700403604621</v>
       </c>
       <c r="D35" t="n">
-        <v>1310.939492239248</v>
+        <v>1175.790618779065</v>
       </c>
       <c r="E35" t="n">
         <v>877.1647473975427</v>
@@ -6928,22 +6928,22 @@
         <v>449.2973178067504</v>
       </c>
       <c r="G35" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="H35" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="I35" t="n">
         <v>125.1921461296497</v>
       </c>
       <c r="J35" t="n">
-        <v>291.8416560478772</v>
+        <v>291.8416560478769</v>
       </c>
       <c r="K35" t="n">
         <v>541.6060719863822</v>
       </c>
       <c r="L35" t="n">
-        <v>851.4609156385202</v>
+        <v>851.4609156385203</v>
       </c>
       <c r="M35" t="n">
         <v>1196.234131838216</v>
@@ -6958,31 +6958,31 @@
         <v>2159.767192776931</v>
       </c>
       <c r="Q35" t="n">
-        <v>2371.802978448967</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R35" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S35" t="n">
-        <v>2457.142437510217</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="T35" t="n">
-        <v>2457.142437510217</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="U35" t="n">
-        <v>2198.080404093057</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="V35" t="n">
-        <v>2198.080404093057</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="W35" t="n">
-        <v>2198.080404093057</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="X35" t="n">
-        <v>2198.080404093057</v>
+        <v>2037.999974089529</v>
       </c>
       <c r="Y35" t="n">
-        <v>2198.080404093057</v>
+        <v>2037.999974089529</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G36" t="n">
-        <v>81.28625329494412</v>
+        <v>81.28625329494413</v>
       </c>
       <c r="H36" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="I36" t="n">
-        <v>86.07360363779611</v>
+        <v>56.31812132261648</v>
       </c>
       <c r="J36" t="n">
-        <v>185.3289100816565</v>
+        <v>155.573427766477</v>
       </c>
       <c r="K36" t="n">
-        <v>259.9894019238666</v>
+        <v>325.2165556316462</v>
       </c>
       <c r="L36" t="n">
-        <v>488.0955226008691</v>
+        <v>553.3226763086489</v>
       </c>
       <c r="M36" t="n">
-        <v>754.284606360296</v>
+        <v>819.5117600680759</v>
       </c>
       <c r="N36" t="n">
-        <v>1027.518923096496</v>
+        <v>1092.746076804276</v>
       </c>
       <c r="O36" t="n">
-        <v>1277.474942253457</v>
+        <v>1342.702095961237</v>
       </c>
       <c r="P36" t="n">
-        <v>1478.086684138829</v>
+        <v>1543.313837846609</v>
       </c>
       <c r="Q36" t="n">
-        <v>1612.190320866099</v>
+        <v>1677.417474573878</v>
       </c>
       <c r="R36" t="n">
         <v>1677.417474573878</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1023.133277700553</v>
+        <v>734.8076143555542</v>
       </c>
       <c r="C37" t="n">
-        <v>850.5715661837777</v>
+        <v>562.2459028387791</v>
       </c>
       <c r="D37" t="n">
-        <v>684.6935733853004</v>
+        <v>396.3679100403018</v>
       </c>
       <c r="E37" t="n">
-        <v>514.9355696360376</v>
+        <v>226.609906291039</v>
       </c>
       <c r="F37" t="n">
-        <v>338.2285155977938</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="G37" t="n">
-        <v>243.4506569891518</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="H37" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="I37" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="J37" t="n">
         <v>112.1724417969993</v>
@@ -7101,46 +7101,46 @@
         <v>214.500505880184</v>
       </c>
       <c r="L37" t="n">
-        <v>345.4451975872578</v>
+        <v>577.5111244639778</v>
       </c>
       <c r="M37" t="n">
-        <v>827.5509152791151</v>
+        <v>1175.057809249457</v>
       </c>
       <c r="N37" t="n">
-        <v>1404.58971082426</v>
+        <v>1752.096604794602</v>
       </c>
       <c r="O37" t="n">
-        <v>1948.750097793809</v>
+        <v>2296.256991764151</v>
       </c>
       <c r="P37" t="n">
         <v>2402.780666612562</v>
       </c>
       <c r="Q37" t="n">
-        <v>2476.532137525724</v>
+        <v>2476.532137525725</v>
       </c>
       <c r="R37" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S37" t="n">
-        <v>2495.14261263976</v>
+        <v>2478.84335370847</v>
       </c>
       <c r="T37" t="n">
-        <v>2253.102813869951</v>
+        <v>2236.80355493866</v>
       </c>
       <c r="U37" t="n">
-        <v>1974.718829901589</v>
+        <v>1958.419570970299</v>
       </c>
       <c r="V37" t="n">
-        <v>1687.763321772019</v>
+        <v>1671.464062840729</v>
       </c>
       <c r="W37" t="n">
-        <v>1687.763321772019</v>
+        <v>1399.437658427021</v>
       </c>
       <c r="X37" t="n">
-        <v>1442.371567105432</v>
+        <v>1154.045903760433</v>
       </c>
       <c r="Y37" t="n">
-        <v>1214.95189641954</v>
+        <v>926.6262330745412</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2068.843042154852</v>
+        <v>1660.556918454507</v>
       </c>
       <c r="C38" t="n">
-        <v>1630.700569338275</v>
+        <v>1347.454811510848</v>
       </c>
       <c r="D38" t="n">
-        <v>1194.79078451272</v>
+        <v>911.5450266852923</v>
       </c>
       <c r="E38" t="n">
-        <v>761.0160396710148</v>
+        <v>477.7702818435875</v>
       </c>
       <c r="F38" t="n">
-        <v>333.1486100802226</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="G38" t="n">
-        <v>318.5160365770238</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="H38" t="n">
-        <v>49.90285225279519</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I38" t="n">
-        <v>125.1921461296492</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J38" t="n">
-        <v>291.8416560478765</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K38" t="n">
-        <v>541.6060719863816</v>
+        <v>541.6060719863824</v>
       </c>
       <c r="L38" t="n">
-        <v>851.4609156385196</v>
+        <v>851.4609156385204</v>
       </c>
       <c r="M38" t="n">
-        <v>1196.234131838215</v>
+        <v>1196.234131838216</v>
       </c>
       <c r="N38" t="n">
-        <v>1546.586139125322</v>
+        <v>1546.586139125323</v>
       </c>
       <c r="O38" t="n">
-        <v>1877.413604793267</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P38" t="n">
-        <v>2159.76719277693</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q38" t="n">
-        <v>2371.802978448966</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R38" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S38" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T38" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="U38" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="V38" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="W38" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="X38" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="Y38" t="n">
-        <v>2495.14261263976</v>
+        <v>2086.856488939414</v>
       </c>
     </row>
     <row r="39">
@@ -7244,25 +7244,25 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G39" t="n">
-        <v>81.2862532949441</v>
+        <v>81.28625329494413</v>
       </c>
       <c r="H39" t="n">
-        <v>49.90285225279519</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I39" t="n">
-        <v>49.90285225279519</v>
+        <v>86.07360363779614</v>
       </c>
       <c r="J39" t="n">
-        <v>90.34627405869738</v>
+        <v>90.34627405869703</v>
       </c>
       <c r="K39" t="n">
-        <v>259.9894019238666</v>
+        <v>259.9894019238663</v>
       </c>
       <c r="L39" t="n">
-        <v>488.0955226008691</v>
+        <v>488.0955226008688</v>
       </c>
       <c r="M39" t="n">
-        <v>754.284606360296</v>
+        <v>754.2846063602959</v>
       </c>
       <c r="N39" t="n">
         <v>1027.518923096496</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>750.463006289594</v>
+        <v>751.1068732868453</v>
       </c>
       <c r="C40" t="n">
-        <v>577.9012947728189</v>
+        <v>578.5451617700702</v>
       </c>
       <c r="D40" t="n">
-        <v>577.9012947728189</v>
+        <v>578.5451617700702</v>
       </c>
       <c r="E40" t="n">
-        <v>408.1432910235562</v>
+        <v>420.1577110273955</v>
       </c>
       <c r="F40" t="n">
-        <v>408.1432910235562</v>
+        <v>243.4506569891518</v>
       </c>
       <c r="G40" t="n">
         <v>243.4506569891518</v>
       </c>
       <c r="H40" t="n">
-        <v>111.5382175803719</v>
+        <v>111.538217580372</v>
       </c>
       <c r="I40" t="n">
-        <v>49.90285225279519</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="J40" t="n">
-        <v>112.1724417969992</v>
+        <v>112.1724417969993</v>
       </c>
       <c r="K40" t="n">
-        <v>214.5005058801839</v>
+        <v>214.500505880184</v>
       </c>
       <c r="L40" t="n">
-        <v>763.6550793552188</v>
+        <v>577.5111244639787</v>
       </c>
       <c r="M40" t="n">
-        <v>1361.201764140698</v>
+        <v>1175.057809249458</v>
       </c>
       <c r="N40" t="n">
-        <v>1938.240559685843</v>
+        <v>1752.096604794603</v>
       </c>
       <c r="O40" t="n">
-        <v>2296.25699176415</v>
+        <v>2296.256991764152</v>
       </c>
       <c r="P40" t="n">
-        <v>2402.780666612561</v>
+        <v>2402.780666612563</v>
       </c>
       <c r="Q40" t="n">
-        <v>2476.532137525724</v>
+        <v>2476.532137525725</v>
       </c>
       <c r="R40" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S40" t="n">
-        <v>2351.562104678984</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T40" t="n">
-        <v>2252.4589468727</v>
+        <v>2253.102813869952</v>
       </c>
       <c r="U40" t="n">
-        <v>1974.074962904338</v>
+        <v>1974.71882990159</v>
       </c>
       <c r="V40" t="n">
-        <v>1687.119454774769</v>
+        <v>1687.76332177202</v>
       </c>
       <c r="W40" t="n">
-        <v>1415.09305036106</v>
+        <v>1415.736917358312</v>
       </c>
       <c r="X40" t="n">
-        <v>1169.701295694473</v>
+        <v>1170.345162691724</v>
       </c>
       <c r="Y40" t="n">
-        <v>942.2816250085812</v>
+        <v>942.9254920058324</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1560.483340370411</v>
+        <v>1785.597284327424</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.340867553834</v>
+        <v>1347.454811510848</v>
       </c>
       <c r="D41" t="n">
-        <v>686.4310827282789</v>
+        <v>911.5450266852922</v>
       </c>
       <c r="E41" t="n">
-        <v>252.656337886574</v>
+        <v>477.7702818435874</v>
       </c>
       <c r="F41" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="G41" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="H41" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="I41" t="n">
-        <v>125.1921461296496</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J41" t="n">
-        <v>291.8416560478768</v>
+        <v>291.8416560478769</v>
       </c>
       <c r="K41" t="n">
-        <v>541.6060719863819</v>
+        <v>541.6060719863822</v>
       </c>
       <c r="L41" t="n">
-        <v>851.4609156385199</v>
+        <v>851.4609156385203</v>
       </c>
       <c r="M41" t="n">
-        <v>1196.234131838215</v>
+        <v>1196.234131838216</v>
       </c>
       <c r="N41" t="n">
-        <v>1546.586139125322</v>
+        <v>1546.586139125323</v>
       </c>
       <c r="O41" t="n">
         <v>1877.413604793267</v>
@@ -7432,31 +7432,31 @@
         <v>2159.767192776931</v>
       </c>
       <c r="Q41" t="n">
-        <v>2371.802978448967</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R41" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S41" t="n">
-        <v>2457.142437510217</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="T41" t="n">
-        <v>2245.84494427248</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="U41" t="n">
-        <v>1986.782910855319</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="V41" t="n">
-        <v>1986.782910855319</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="W41" t="n">
-        <v>1986.782910855319</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="X41" t="n">
-        <v>1986.782910855319</v>
+        <v>2211.896854812332</v>
       </c>
       <c r="Y41" t="n">
-        <v>1986.782910855319</v>
+        <v>2211.896854812332</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G42" t="n">
-        <v>81.28625329494412</v>
+        <v>81.28625329494413</v>
       </c>
       <c r="H42" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="I42" t="n">
-        <v>86.07360363779611</v>
+        <v>86.07360363779613</v>
       </c>
       <c r="J42" t="n">
-        <v>185.3289100816565</v>
+        <v>185.3289100816566</v>
       </c>
       <c r="K42" t="n">
-        <v>259.9894019238666</v>
+        <v>354.9720379468259</v>
       </c>
       <c r="L42" t="n">
-        <v>488.0955226008691</v>
+        <v>583.0781586238285</v>
       </c>
       <c r="M42" t="n">
-        <v>754.284606360296</v>
+        <v>849.2672423832555</v>
       </c>
       <c r="N42" t="n">
-        <v>1027.518923096496</v>
+        <v>1122.501559119455</v>
       </c>
       <c r="O42" t="n">
-        <v>1277.474942253457</v>
+        <v>1372.457578276416</v>
       </c>
       <c r="P42" t="n">
-        <v>1478.086684138829</v>
+        <v>1573.069320161788</v>
       </c>
       <c r="Q42" t="n">
         <v>1612.190320866099</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>791.3776099682725</v>
+        <v>607.5263653260695</v>
       </c>
       <c r="C43" t="n">
-        <v>618.8158984514974</v>
+        <v>516.2659294452421</v>
       </c>
       <c r="D43" t="n">
-        <v>452.9379056530202</v>
+        <v>516.2659294452421</v>
       </c>
       <c r="E43" t="n">
-        <v>452.9379056530202</v>
+        <v>346.5079256959795</v>
       </c>
       <c r="F43" t="n">
-        <v>276.2308516147764</v>
+        <v>346.5079256959795</v>
       </c>
       <c r="G43" t="n">
-        <v>111.538217580372</v>
+        <v>181.815291661575</v>
       </c>
       <c r="H43" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="I43" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="J43" t="n">
         <v>112.1724417969993</v>
@@ -7575,46 +7575,46 @@
         <v>214.500505880184</v>
       </c>
       <c r="L43" t="n">
-        <v>345.4451975872578</v>
+        <v>577.5111244639778</v>
       </c>
       <c r="M43" t="n">
-        <v>942.9918823727369</v>
+        <v>1175.057809249457</v>
       </c>
       <c r="N43" t="n">
-        <v>1520.030677917881</v>
+        <v>1752.096604794602</v>
       </c>
       <c r="O43" t="n">
-        <v>1948.750097793809</v>
+        <v>2296.256991764151</v>
       </c>
       <c r="P43" t="n">
         <v>2402.780666612562</v>
       </c>
       <c r="Q43" t="n">
-        <v>2476.532137525724</v>
+        <v>2476.532137525725</v>
       </c>
       <c r="R43" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S43" t="n">
         <v>2351.562104678985</v>
       </c>
       <c r="T43" t="n">
-        <v>2293.373550551379</v>
+        <v>2109.522305909176</v>
       </c>
       <c r="U43" t="n">
-        <v>2014.989566583017</v>
+        <v>1831.138321940814</v>
       </c>
       <c r="V43" t="n">
-        <v>1728.034058453447</v>
+        <v>1544.182813811244</v>
       </c>
       <c r="W43" t="n">
-        <v>1456.007654039739</v>
+        <v>1272.156409397536</v>
       </c>
       <c r="X43" t="n">
-        <v>1210.615899373151</v>
+        <v>1026.764654730948</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.1962286872597</v>
+        <v>799.3449840450567</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1193.628060910987</v>
+        <v>911.5450266852923</v>
       </c>
       <c r="C44" t="n">
-        <v>755.4855880944106</v>
+        <v>911.5450266852923</v>
       </c>
       <c r="D44" t="n">
-        <v>483.6775970945</v>
+        <v>911.5450266852923</v>
       </c>
       <c r="E44" t="n">
-        <v>49.9028522527952</v>
+        <v>477.7702818435875</v>
       </c>
       <c r="F44" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="G44" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="H44" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I44" t="n">
         <v>125.1921461296497</v>
       </c>
       <c r="J44" t="n">
-        <v>291.8416560478772</v>
+        <v>291.8416560478767</v>
       </c>
       <c r="K44" t="n">
-        <v>541.6060719863823</v>
+        <v>541.6060719863819</v>
       </c>
       <c r="L44" t="n">
-        <v>851.4609156385201</v>
+        <v>851.4609156385203</v>
       </c>
       <c r="M44" t="n">
         <v>1196.234131838216</v>
@@ -7663,37 +7663,37 @@
         <v>1546.586139125323</v>
       </c>
       <c r="O44" t="n">
-        <v>1877.413604793267</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P44" t="n">
         <v>2159.767192776931</v>
       </c>
       <c r="Q44" t="n">
-        <v>2371.802978448967</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R44" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S44" t="n">
-        <v>2495.14261263976</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="T44" t="n">
-        <v>2283.845119402022</v>
+        <v>2245.84494427248</v>
       </c>
       <c r="U44" t="n">
-        <v>2024.783085984862</v>
+        <v>1986.78291085532</v>
       </c>
       <c r="V44" t="n">
-        <v>2024.783085984862</v>
+        <v>1735.542944694948</v>
       </c>
       <c r="W44" t="n">
-        <v>1619.927631395895</v>
+        <v>1330.687490105982</v>
       </c>
       <c r="X44" t="n">
-        <v>1619.927631395895</v>
+        <v>911.5450266852923</v>
       </c>
       <c r="Y44" t="n">
-        <v>1619.927631395895</v>
+        <v>911.5450266852923</v>
       </c>
     </row>
     <row r="45">
@@ -7718,25 +7718,25 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G45" t="n">
-        <v>81.28625329494412</v>
+        <v>81.28625329494413</v>
       </c>
       <c r="H45" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I45" t="n">
-        <v>49.9028522527952</v>
+        <v>86.07360363779615</v>
       </c>
       <c r="J45" t="n">
-        <v>90.34627405869738</v>
+        <v>90.34627405869685</v>
       </c>
       <c r="K45" t="n">
-        <v>259.9894019238666</v>
+        <v>259.9894019238661</v>
       </c>
       <c r="L45" t="n">
-        <v>488.0955226008691</v>
+        <v>488.0955226008687</v>
       </c>
       <c r="M45" t="n">
-        <v>754.284606360296</v>
+        <v>754.2846063602958</v>
       </c>
       <c r="N45" t="n">
         <v>1027.518923096496</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>751.1068732868443</v>
+        <v>885.9103492944319</v>
       </c>
       <c r="C46" t="n">
-        <v>578.5451617700693</v>
+        <v>713.3486377776568</v>
       </c>
       <c r="D46" t="n">
-        <v>578.5451617700693</v>
+        <v>547.4706449791795</v>
       </c>
       <c r="E46" t="n">
-        <v>408.7871580208065</v>
+        <v>377.7126412299168</v>
       </c>
       <c r="F46" t="n">
-        <v>346.5079256959795</v>
+        <v>377.7126412299168</v>
       </c>
       <c r="G46" t="n">
-        <v>181.815291661575</v>
+        <v>213.0200071955123</v>
       </c>
       <c r="H46" t="n">
-        <v>49.9028522527952</v>
+        <v>81.10756778673255</v>
       </c>
       <c r="I46" t="n">
-        <v>49.9028522527952</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="J46" t="n">
-        <v>198.7521269616891</v>
+        <v>198.7521269616892</v>
       </c>
       <c r="K46" t="n">
         <v>575.8386456160094</v>
@@ -7821,37 +7821,37 @@
         <v>1857.319896264024</v>
       </c>
       <c r="O46" t="n">
-        <v>2296.256991764151</v>
+        <v>1981.811034007791</v>
       </c>
       <c r="P46" t="n">
-        <v>2402.780666612562</v>
+        <v>2234.587891748231</v>
       </c>
       <c r="Q46" t="n">
-        <v>2476.532137525724</v>
+        <v>2476.532137525725</v>
       </c>
       <c r="R46" t="n">
-        <v>2495.14261263976</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S46" t="n">
-        <v>2495.14261263976</v>
+        <v>2351.562104678986</v>
       </c>
       <c r="T46" t="n">
-        <v>2253.102813869951</v>
+        <v>2109.522305909176</v>
       </c>
       <c r="U46" t="n">
-        <v>1974.718829901589</v>
+        <v>2109.522305909176</v>
       </c>
       <c r="V46" t="n">
-        <v>1687.763321772019</v>
+        <v>1822.566797779607</v>
       </c>
       <c r="W46" t="n">
-        <v>1415.736917358311</v>
+        <v>1550.540393365898</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.345162691723</v>
+        <v>1305.148638699311</v>
       </c>
       <c r="Y46" t="n">
-        <v>942.9254920058315</v>
+        <v>1077.728968013419</v>
       </c>
     </row>
   </sheetData>
@@ -8850,13 +8850,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="L13" t="n">
-        <v>249.9006690062666</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -9084,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M16" t="n">
         <v>458.1582657371571</v>
@@ -9099,13 +9099,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>45.75904403825007</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>93.97993254278396</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>229.6216911390744</v>
       </c>
       <c r="M22" t="n">
-        <v>81.48308576736599</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9576,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,22 +9795,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>137.4096033008362</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>72.77310710606275</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.355947714526962</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>234.4100271482029</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>161.7014430883949</v>
+        <v>146.9557997091209</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>94.2761281877174</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>64.51833536604863</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10749,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>234.4100271482019</v>
       </c>
       <c r="M37" t="n">
-        <v>347.5180808962538</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10761,7 +10761,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>234.4100271482029</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645587</v>
@@ -10995,7 +10995,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>235.8841356914545</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>234.4100271482019</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645587</v>
@@ -11232,10 +11232,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>307.3012950829898</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11469,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>317.6221795518782</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>147.7304877697261</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>7.580862565275311</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23269,13 +23269,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>178.6844450927842</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>24.44435877622023</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>228.5101385541828</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>98.82505344542352</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.78394473440028</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.423243190363344</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>56.34140261135326</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>239.2421595435063</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>44.35018006274834</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>38.60970602238496</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>54.74153010489374</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735097</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>136.8941178020548</v>
       </c>
       <c r="X20" t="n">
-        <v>79.57925990787618</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>38.1382701058853</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811442</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>134.0880944690142</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>262.2554057018191</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H23" t="n">
-        <v>265.9270524809863</v>
+        <v>258.3756639560867</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>37.62017337824732</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.1845183053605</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>126.0084365391902</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0457076940604</v>
+        <v>146.9094413520821</v>
       </c>
       <c r="H25" t="n">
         <v>130.593315014692</v>
       </c>
       <c r="I25" t="n">
-        <v>61.01901167430098</v>
+        <v>61.01901167430097</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>406.9340534819543</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>395.4005208984156</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>142.6001262905072</v>
       </c>
     </row>
     <row r="27">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>72.98664642836225</v>
+        <v>146.9094413520821</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.01901167430097</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T28" t="n">
-        <v>239.619400782111</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>225.6218602974693</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>37.62017337824732</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.1845183053605</v>
       </c>
       <c r="U29" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>277.1174242444783</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>98.90236725896473</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>44.88274533232408</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>142.1447028811674</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.619400782111</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>23.13392561007907</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H32" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.62017337824732</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>19.22107136208444</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.5817845432147</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>12.08746471562895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>409.0788071104986</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>133.7973847255802</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>209.1845183053605</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25219,7 +25219,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>69.21562767150473</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>61.01901167430097</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.1447028811674</v>
+        <v>126.0084365391896</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>123.7899622141887</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>380.9142731302489</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.62017337824732</v>
+        <v>37.62017337824731</v>
       </c>
       <c r="T38" t="n">
         <v>209.1845183053605</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,13 +25557,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>11.25684747652221</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T40" t="n">
-        <v>141.5072745538899</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>222.8628045174433</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.4005208984156</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25693,7 +25693,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>172.1579119155755</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>80.48826287958825</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.01901167430097</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>182.012732195781</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>162.4607758873885</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.4005208984156</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.62017337824732</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>110.2632140667439</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>113.2835434962825</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.01901167430098</v>
+        <v>30.12634329570302</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6001441286783</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>326339.1687623998</v>
+        <v>326339.1687623999</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>341044.6008855094</v>
+        <v>341044.6008855096</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>341044.6008855094</v>
+        <v>341044.6008855095</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>341044.6008855094</v>
+        <v>341044.6008855095</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>341044.6008855094</v>
+        <v>341044.6008855095</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>341044.6008855094</v>
+        <v>341044.6008855095</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>341044.6008855095</v>
+        <v>341044.6008855096</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>405623.0904895886</v>
+        <v>405623.0904895884</v>
       </c>
       <c r="C2" t="n">
         <v>405623.0904895886</v>
@@ -26322,10 +26322,10 @@
         <v>405623.0904895886</v>
       </c>
       <c r="E2" t="n">
-        <v>243811.2355162669</v>
+        <v>243811.2355162668</v>
       </c>
       <c r="F2" t="n">
-        <v>243811.2355162669</v>
+        <v>243811.235516267</v>
       </c>
       <c r="G2" t="n">
         <v>243811.2355162669</v>
@@ -26337,25 +26337,25 @@
         <v>254622.5243826109</v>
       </c>
       <c r="J2" t="n">
+        <v>254622.524382611</v>
+      </c>
+      <c r="K2" t="n">
         <v>254622.5243826109</v>
       </c>
-      <c r="K2" t="n">
-        <v>254622.5243826108</v>
-      </c>
       <c r="L2" t="n">
+        <v>254622.524382611</v>
+      </c>
+      <c r="M2" t="n">
         <v>254622.5243826109</v>
-      </c>
-      <c r="M2" t="n">
-        <v>254622.5243826108</v>
       </c>
       <c r="N2" t="n">
         <v>254622.5243826109</v>
       </c>
       <c r="O2" t="n">
-        <v>254622.5243826109</v>
+        <v>254622.524382611</v>
       </c>
       <c r="P2" t="n">
-        <v>254622.5243826109</v>
+        <v>254622.524382611</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29024.76432745867</v>
+        <v>29024.76432745897</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>20076.67410129962</v>
@@ -26432,19 +26432,19 @@
         <v>20076.67410129962</v>
       </c>
       <c r="G4" t="n">
-        <v>20076.67410129964</v>
+        <v>20076.67410129962</v>
       </c>
       <c r="H4" t="n">
-        <v>20076.67410129963</v>
+        <v>20076.67410129962</v>
       </c>
       <c r="I4" t="n">
-        <v>21201.42198158156</v>
+        <v>21201.42198158157</v>
       </c>
       <c r="J4" t="n">
         <v>21201.42198158156</v>
       </c>
       <c r="K4" t="n">
-        <v>21201.42198158155</v>
+        <v>21201.42198158154</v>
       </c>
       <c r="L4" t="n">
         <v>21201.42198158156</v>
@@ -26453,13 +26453,13 @@
         <v>21201.42198158155</v>
       </c>
       <c r="N4" t="n">
-        <v>21201.42198158154</v>
+        <v>21201.42198158156</v>
       </c>
       <c r="O4" t="n">
         <v>21201.42198158155</v>
       </c>
       <c r="P4" t="n">
-        <v>21201.42198158155</v>
+        <v>21201.42198158157</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963784</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>48681.28220745473</v>
+        <v>48681.28220745475</v>
       </c>
       <c r="J5" t="n">
-        <v>48681.28220745473</v>
+        <v>48681.28220745475</v>
       </c>
       <c r="K5" t="n">
-        <v>48681.28220745473</v>
+        <v>48681.28220745474</v>
       </c>
       <c r="L5" t="n">
-        <v>48681.28220745473</v>
+        <v>48681.28220745475</v>
       </c>
       <c r="M5" t="n">
-        <v>48681.28220745473</v>
+        <v>48681.28220745474</v>
       </c>
       <c r="N5" t="n">
-        <v>48681.28220745473</v>
+        <v>48681.28220745475</v>
       </c>
       <c r="O5" t="n">
-        <v>48681.28220745473</v>
+        <v>48681.28220745474</v>
       </c>
       <c r="P5" t="n">
-        <v>48681.28220745473</v>
+        <v>48681.28220745475</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73264.77417775581</v>
+        <v>73232.86746025401</v>
       </c>
       <c r="C6" t="n">
-        <v>73264.77417775575</v>
+        <v>73232.86746025413</v>
       </c>
       <c r="D6" t="n">
-        <v>73264.77417775575</v>
+        <v>73232.86746025413</v>
       </c>
       <c r="E6" t="n">
-        <v>-373451.7207853462</v>
+        <v>-374005.6012285682</v>
       </c>
       <c r="F6" t="n">
-        <v>177683.4802053295</v>
+        <v>177129.5997621076</v>
       </c>
       <c r="G6" t="n">
-        <v>177683.4802053294</v>
+        <v>177129.5997621075</v>
       </c>
       <c r="H6" t="n">
-        <v>177683.4802053294</v>
+        <v>177129.5997621075</v>
       </c>
       <c r="I6" t="n">
-        <v>155715.0558661159</v>
+        <v>155196.0505482689</v>
       </c>
       <c r="J6" t="n">
-        <v>184739.8201935746</v>
+        <v>184220.814875728</v>
       </c>
       <c r="K6" t="n">
-        <v>184739.8201935745</v>
+        <v>184220.814875728</v>
       </c>
       <c r="L6" t="n">
-        <v>184739.8201935746</v>
+        <v>184220.814875728</v>
       </c>
       <c r="M6" t="n">
-        <v>37689.05179100309</v>
+        <v>37170.04647315656</v>
       </c>
       <c r="N6" t="n">
-        <v>184739.8201935746</v>
+        <v>184220.814875728</v>
       </c>
       <c r="O6" t="n">
-        <v>184739.8201935746</v>
+        <v>184220.814875728</v>
       </c>
       <c r="P6" t="n">
-        <v>184739.8201935746</v>
+        <v>184220.814875728</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
+        <v>466.7019280932212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>466.7019280932212</v>
+      </c>
+      <c r="H3" t="n">
         <v>466.7019280932213</v>
       </c>
-      <c r="G3" t="n">
-        <v>466.7019280932213</v>
-      </c>
-      <c r="H3" t="n">
-        <v>466.7019280932214</v>
-      </c>
       <c r="I3" t="n">
-        <v>493.3538759325864</v>
+        <v>493.3538759325866</v>
       </c>
       <c r="J3" t="n">
-        <v>493.3538759325864</v>
+        <v>493.3538759325867</v>
       </c>
       <c r="K3" t="n">
-        <v>493.3538759325864</v>
+        <v>493.3538759325866</v>
       </c>
       <c r="L3" t="n">
-        <v>493.3538759325864</v>
+        <v>493.3538759325866</v>
       </c>
       <c r="M3" t="n">
-        <v>493.3538759325864</v>
+        <v>493.3538759325866</v>
       </c>
       <c r="N3" t="n">
-        <v>493.3538759325864</v>
+        <v>493.3538759325866</v>
       </c>
       <c r="O3" t="n">
-        <v>493.3538759325864</v>
+        <v>493.3538759325866</v>
       </c>
       <c r="P3" t="n">
-        <v>493.3538759325864</v>
+        <v>493.3538759325867</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
+        <v>623.7856531599402</v>
+      </c>
+      <c r="J4" t="n">
+        <v>623.7856531599402</v>
+      </c>
+      <c r="K4" t="n">
         <v>623.78565315994</v>
       </c>
-      <c r="J4" t="n">
-        <v>623.78565315994</v>
-      </c>
-      <c r="K4" t="n">
-        <v>623.7856531599399</v>
-      </c>
       <c r="L4" t="n">
-        <v>623.78565315994</v>
+        <v>623.7856531599402</v>
       </c>
       <c r="M4" t="n">
-        <v>623.78565315994</v>
+        <v>623.7856531599401</v>
       </c>
       <c r="N4" t="n">
-        <v>623.7856531599399</v>
+        <v>623.7856531599402</v>
       </c>
       <c r="O4" t="n">
-        <v>623.78565315994</v>
+        <v>623.7856531599401</v>
       </c>
       <c r="P4" t="n">
-        <v>623.78565315994</v>
+        <v>623.7856531599402</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.65194783936505</v>
+        <v>26.65194783936533</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>33.70375879800565</v>
+        <v>33.70375879800599</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31992,13 +31992,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -32007,10 +32007,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,19 +32177,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,13 +32229,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -32244,10 +32244,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916724</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.87618865565114</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968724</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699064</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J20" t="n">
         <v>159.2391669125711</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548413</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184537</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879472</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065039</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112869</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520912</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.00384943023825</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879941</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I21" t="n">
         <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562344</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108048</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002363</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233627</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183765</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600663</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0660427256735691</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238418</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H22" t="n">
-        <v>7.48253255205198</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495699</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624561</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116997</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32645,13 +32645,13 @@
         <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207643</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R22" t="n">
         <v>37.841110431952</v>
@@ -32660,10 +32660,10 @@
         <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701869</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130052</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.98333216455311</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H23" t="n">
-        <v>20.31180053022954</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I23" t="n">
-        <v>76.46241327393385</v>
+        <v>76.46241327393386</v>
       </c>
       <c r="J23" t="n">
         <v>168.3328383012397</v>
@@ -32715,31 +32715,31 @@
         <v>252.2872888267729</v>
       </c>
       <c r="L23" t="n">
-        <v>312.9846905577152</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M23" t="n">
-        <v>348.2557739390865</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N23" t="n">
-        <v>353.8909164516231</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O23" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P23" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.1775612848848</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R23" t="n">
         <v>124.5854890816094</v>
       </c>
       <c r="S23" t="n">
-        <v>45.19518169975404</v>
+        <v>45.19518169975405</v>
       </c>
       <c r="T23" t="n">
-        <v>8.682036550331242</v>
+        <v>8.682036550331246</v>
       </c>
       <c r="U23" t="n">
         <v>0.1586665731642488</v>
@@ -32782,25 +32782,25 @@
         <v>1.061176261439903</v>
       </c>
       <c r="H24" t="n">
-        <v>10.24872863022222</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I24" t="n">
-        <v>36.53611251010193</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J24" t="n">
-        <v>4.315828707981083</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3566948133022</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L24" t="n">
         <v>230.4102229060632</v>
       </c>
       <c r="M24" t="n">
-        <v>268.8778623832596</v>
+        <v>268.8778623832597</v>
       </c>
       <c r="N24" t="n">
-        <v>275.9942593294948</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O24" t="n">
         <v>252.4808274312738</v>
@@ -32809,19 +32809,19 @@
         <v>202.6381231165373</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.4582189164339</v>
+        <v>39.51616232758602</v>
       </c>
       <c r="R24" t="n">
-        <v>65.88601384624242</v>
+        <v>65.88601384624245</v>
       </c>
       <c r="S24" t="n">
-        <v>19.71088362806134</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T24" t="n">
-        <v>4.277285018698555</v>
+        <v>4.277285018698556</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06981422772630944</v>
+        <v>0.06981422772630946</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8896545303702378</v>
+        <v>0.889654530370238</v>
       </c>
       <c r="H25" t="n">
-        <v>7.90983755183721</v>
+        <v>7.909837551837214</v>
       </c>
       <c r="I25" t="n">
-        <v>26.75433805877043</v>
+        <v>26.75433805877044</v>
       </c>
       <c r="J25" t="n">
-        <v>62.8985752971758</v>
+        <v>62.89857529717582</v>
       </c>
       <c r="K25" t="n">
         <v>103.3616808921058</v>
@@ -32888,19 +32888,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.49643526582055</v>
+        <v>74.49643526582058</v>
       </c>
       <c r="R25" t="n">
-        <v>40.00210279282904</v>
+        <v>40.00210279282906</v>
       </c>
       <c r="S25" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T25" t="n">
-        <v>3.801251175218288</v>
+        <v>3.801251175218289</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04852661074746757</v>
+        <v>0.04852661074746759</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.98333216455311</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H26" t="n">
-        <v>20.31180053022954</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I26" t="n">
-        <v>76.46241327393385</v>
+        <v>76.46241327393388</v>
       </c>
       <c r="J26" t="n">
         <v>168.3328383012397</v>
       </c>
       <c r="K26" t="n">
-        <v>252.2872888267729</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L26" t="n">
-        <v>312.9846905577152</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M26" t="n">
-        <v>348.2557739390865</v>
+        <v>348.2557739390867</v>
       </c>
       <c r="N26" t="n">
-        <v>353.8909164516231</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O26" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P26" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.1775612848848</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R26" t="n">
-        <v>124.5854890816094</v>
+        <v>124.5854890816095</v>
       </c>
       <c r="S26" t="n">
-        <v>45.19518169975404</v>
+        <v>45.19518169975406</v>
       </c>
       <c r="T26" t="n">
-        <v>8.682036550331242</v>
+        <v>8.682036550331247</v>
       </c>
       <c r="U26" t="n">
         <v>0.1586665731642488</v>
@@ -33019,46 +33019,46 @@
         <v>1.061176261439903</v>
       </c>
       <c r="H27" t="n">
-        <v>10.24872863022222</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J27" t="n">
-        <v>40.85194121808301</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K27" t="n">
-        <v>171.3566948133022</v>
+        <v>75.41463822445402</v>
       </c>
       <c r="L27" t="n">
-        <v>230.4102229060632</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M27" t="n">
-        <v>268.8778623832596</v>
+        <v>268.8778623832597</v>
       </c>
       <c r="N27" t="n">
-        <v>275.9942593294948</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O27" t="n">
-        <v>252.4808274312738</v>
+        <v>252.4808274312739</v>
       </c>
       <c r="P27" t="n">
-        <v>202.6381231165373</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.4582189164339</v>
+        <v>135.458218916434</v>
       </c>
       <c r="R27" t="n">
-        <v>65.88601384624242</v>
+        <v>65.88601384624245</v>
       </c>
       <c r="S27" t="n">
-        <v>19.71088362806134</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T27" t="n">
-        <v>4.277285018698555</v>
+        <v>4.277285018698556</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06981422772630944</v>
+        <v>0.06981422772630946</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8896545303702378</v>
+        <v>0.8896545303702381</v>
       </c>
       <c r="H28" t="n">
-        <v>7.90983755183721</v>
+        <v>7.909837551837215</v>
       </c>
       <c r="I28" t="n">
-        <v>26.75433805877043</v>
+        <v>26.75433805877044</v>
       </c>
       <c r="J28" t="n">
-        <v>62.8985752971758</v>
+        <v>62.89857529717583</v>
       </c>
       <c r="K28" t="n">
         <v>103.3616808921058</v>
@@ -33113,31 +33113,31 @@
         <v>132.2673653606807</v>
       </c>
       <c r="M28" t="n">
-        <v>139.4573915197637</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N28" t="n">
-        <v>136.1414064520202</v>
+        <v>136.1414064520203</v>
       </c>
       <c r="O28" t="n">
-        <v>125.7486239836042</v>
+        <v>125.7486239836043</v>
       </c>
       <c r="P28" t="n">
         <v>107.5996715640513</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.49643526582055</v>
+        <v>74.49643526582058</v>
       </c>
       <c r="R28" t="n">
-        <v>40.00210279282904</v>
+        <v>40.00210279282906</v>
       </c>
       <c r="S28" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T28" t="n">
-        <v>3.801251175218288</v>
+        <v>3.801251175218289</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04852661074746757</v>
+        <v>0.04852661074746759</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.98333216455311</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H29" t="n">
-        <v>20.31180053022954</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I29" t="n">
-        <v>76.46241327393385</v>
+        <v>76.46241327393386</v>
       </c>
       <c r="J29" t="n">
         <v>168.3328383012397</v>
@@ -33189,31 +33189,31 @@
         <v>252.2872888267729</v>
       </c>
       <c r="L29" t="n">
-        <v>312.9846905577152</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M29" t="n">
-        <v>348.2557739390865</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N29" t="n">
-        <v>353.8909164516231</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O29" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P29" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.1775612848848</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R29" t="n">
         <v>124.5854890816094</v>
       </c>
       <c r="S29" t="n">
-        <v>45.19518169975404</v>
+        <v>45.19518169975405</v>
       </c>
       <c r="T29" t="n">
-        <v>8.682036550331242</v>
+        <v>8.682036550331246</v>
       </c>
       <c r="U29" t="n">
         <v>0.1586665731642488</v>
@@ -33256,25 +33256,25 @@
         <v>1.061176261439903</v>
       </c>
       <c r="H30" t="n">
-        <v>10.24872863022222</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I30" t="n">
-        <v>36.53611251010193</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J30" t="n">
-        <v>100.2578852968287</v>
+        <v>4.315828707980728</v>
       </c>
       <c r="K30" t="n">
-        <v>171.3566948133022</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L30" t="n">
         <v>230.4102229060632</v>
       </c>
       <c r="M30" t="n">
-        <v>268.8778623832596</v>
+        <v>268.8778623832597</v>
       </c>
       <c r="N30" t="n">
-        <v>180.0522027406471</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O30" t="n">
         <v>252.4808274312738</v>
@@ -33283,19 +33283,19 @@
         <v>202.6381231165373</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.4582189164339</v>
+        <v>135.458218916434</v>
       </c>
       <c r="R30" t="n">
-        <v>65.88601384624242</v>
+        <v>65.88601384624245</v>
       </c>
       <c r="S30" t="n">
-        <v>19.71088362806134</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T30" t="n">
-        <v>4.277285018698555</v>
+        <v>4.277285018698556</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06981422772630944</v>
+        <v>0.06981422772630946</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8896545303702378</v>
+        <v>0.889654530370238</v>
       </c>
       <c r="H31" t="n">
-        <v>7.90983755183721</v>
+        <v>7.909837551837214</v>
       </c>
       <c r="I31" t="n">
-        <v>26.75433805877043</v>
+        <v>26.75433805877044</v>
       </c>
       <c r="J31" t="n">
-        <v>62.8985752971758</v>
+        <v>62.89857529717582</v>
       </c>
       <c r="K31" t="n">
         <v>103.3616808921058</v>
@@ -33362,19 +33362,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.49643526582055</v>
+        <v>74.49643526582058</v>
       </c>
       <c r="R31" t="n">
-        <v>40.00210279282904</v>
+        <v>40.00210279282906</v>
       </c>
       <c r="S31" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T31" t="n">
-        <v>3.801251175218288</v>
+        <v>3.801251175218289</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04852661074746757</v>
+        <v>0.04852661074746759</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.98333216455311</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H32" t="n">
-        <v>20.31180053022954</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I32" t="n">
-        <v>76.46241327393385</v>
+        <v>76.46241327393386</v>
       </c>
       <c r="J32" t="n">
         <v>168.3328383012397</v>
@@ -33426,31 +33426,31 @@
         <v>252.2872888267729</v>
       </c>
       <c r="L32" t="n">
-        <v>312.9846905577152</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M32" t="n">
-        <v>348.2557739390865</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N32" t="n">
-        <v>353.8909164516231</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O32" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P32" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.1775612848848</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R32" t="n">
         <v>124.5854890816094</v>
       </c>
       <c r="S32" t="n">
-        <v>45.19518169975404</v>
+        <v>45.19518169975405</v>
       </c>
       <c r="T32" t="n">
-        <v>8.682036550331242</v>
+        <v>8.682036550331246</v>
       </c>
       <c r="U32" t="n">
         <v>0.1586665731642488</v>
@@ -33493,25 +33493,25 @@
         <v>1.061176261439903</v>
       </c>
       <c r="H33" t="n">
-        <v>10.24872863022222</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I33" t="n">
-        <v>36.53611251010193</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J33" t="n">
-        <v>100.2578852968287</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K33" t="n">
-        <v>171.3566948133022</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L33" t="n">
-        <v>134.4681663172155</v>
+        <v>134.4681663172152</v>
       </c>
       <c r="M33" t="n">
-        <v>268.8778623832596</v>
+        <v>268.8778623832597</v>
       </c>
       <c r="N33" t="n">
-        <v>275.9942593294948</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O33" t="n">
         <v>252.4808274312738</v>
@@ -33520,19 +33520,19 @@
         <v>202.6381231165373</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.4582189164339</v>
+        <v>135.458218916434</v>
       </c>
       <c r="R33" t="n">
-        <v>65.88601384624242</v>
+        <v>65.88601384624245</v>
       </c>
       <c r="S33" t="n">
-        <v>19.71088362806134</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T33" t="n">
-        <v>4.277285018698555</v>
+        <v>4.277285018698556</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06981422772630944</v>
+        <v>0.06981422772630946</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8896545303702378</v>
+        <v>0.889654530370238</v>
       </c>
       <c r="H34" t="n">
-        <v>7.90983755183721</v>
+        <v>7.909837551837214</v>
       </c>
       <c r="I34" t="n">
-        <v>26.75433805877043</v>
+        <v>26.75433805877044</v>
       </c>
       <c r="J34" t="n">
-        <v>62.8985752971758</v>
+        <v>62.89857529717582</v>
       </c>
       <c r="K34" t="n">
         <v>103.3616808921058</v>
@@ -33599,19 +33599,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.49643526582055</v>
+        <v>74.49643526582058</v>
       </c>
       <c r="R34" t="n">
-        <v>40.00210279282904</v>
+        <v>40.00210279282906</v>
       </c>
       <c r="S34" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T34" t="n">
-        <v>3.801251175218288</v>
+        <v>3.801251175218289</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04852661074746757</v>
+        <v>0.04852661074746759</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.98333216455311</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H35" t="n">
-        <v>20.31180053022954</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I35" t="n">
-        <v>76.46241327393385</v>
+        <v>76.46241327393386</v>
       </c>
       <c r="J35" t="n">
         <v>168.3328383012397</v>
@@ -33663,31 +33663,31 @@
         <v>252.2872888267729</v>
       </c>
       <c r="L35" t="n">
-        <v>312.9846905577152</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M35" t="n">
-        <v>348.2557739390865</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N35" t="n">
-        <v>353.8909164516231</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O35" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P35" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.1775612848848</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R35" t="n">
         <v>124.5854890816094</v>
       </c>
       <c r="S35" t="n">
-        <v>45.19518169975404</v>
+        <v>45.19518169975405</v>
       </c>
       <c r="T35" t="n">
-        <v>8.682036550331242</v>
+        <v>8.682036550331246</v>
       </c>
       <c r="U35" t="n">
         <v>0.1586665731642488</v>
@@ -33730,25 +33730,25 @@
         <v>1.061176261439903</v>
       </c>
       <c r="H36" t="n">
-        <v>10.24872863022222</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I36" t="n">
-        <v>36.53611251010193</v>
+        <v>6.480069767496232</v>
       </c>
       <c r="J36" t="n">
-        <v>100.2578852968287</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K36" t="n">
-        <v>75.41463822445456</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L36" t="n">
         <v>230.4102229060632</v>
       </c>
       <c r="M36" t="n">
-        <v>268.8778623832596</v>
+        <v>268.8778623832597</v>
       </c>
       <c r="N36" t="n">
-        <v>275.9942593294948</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O36" t="n">
         <v>252.4808274312738</v>
@@ -33757,19 +33757,19 @@
         <v>202.6381231165373</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.4582189164339</v>
+        <v>135.458218916434</v>
       </c>
       <c r="R36" t="n">
-        <v>65.88601384624242</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>19.71088362806134</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T36" t="n">
-        <v>4.277285018698555</v>
+        <v>4.277285018698556</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06981422772630944</v>
+        <v>0.06981422772630946</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8896545303702378</v>
+        <v>0.889654530370238</v>
       </c>
       <c r="H37" t="n">
-        <v>7.90983755183721</v>
+        <v>7.909837551837214</v>
       </c>
       <c r="I37" t="n">
-        <v>26.75433805877043</v>
+        <v>26.75433805877044</v>
       </c>
       <c r="J37" t="n">
-        <v>62.8985752971758</v>
+        <v>62.89857529717582</v>
       </c>
       <c r="K37" t="n">
         <v>103.3616808921058</v>
@@ -33836,19 +33836,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.49643526582055</v>
+        <v>74.49643526582058</v>
       </c>
       <c r="R37" t="n">
-        <v>40.00210279282904</v>
+        <v>40.00210279282906</v>
       </c>
       <c r="S37" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T37" t="n">
-        <v>3.801251175218288</v>
+        <v>3.801251175218289</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04852661074746757</v>
+        <v>0.04852661074746759</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.98333216455311</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H38" t="n">
-        <v>20.31180053022954</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I38" t="n">
-        <v>76.46241327393385</v>
+        <v>76.46241327393386</v>
       </c>
       <c r="J38" t="n">
         <v>168.3328383012397</v>
@@ -33900,31 +33900,31 @@
         <v>252.2872888267729</v>
       </c>
       <c r="L38" t="n">
-        <v>312.9846905577152</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M38" t="n">
-        <v>348.2557739390865</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N38" t="n">
-        <v>353.8909164516231</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O38" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P38" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.1775612848848</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R38" t="n">
         <v>124.5854890816094</v>
       </c>
       <c r="S38" t="n">
-        <v>45.19518169975404</v>
+        <v>45.19518169975405</v>
       </c>
       <c r="T38" t="n">
-        <v>8.682036550331242</v>
+        <v>8.682036550331246</v>
       </c>
       <c r="U38" t="n">
         <v>0.1586665731642488</v>
@@ -33967,25 +33967,25 @@
         <v>1.061176261439903</v>
       </c>
       <c r="H39" t="n">
-        <v>10.24872863022222</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J39" t="n">
-        <v>40.85194121808302</v>
+        <v>4.315828707980714</v>
       </c>
       <c r="K39" t="n">
-        <v>171.3566948133022</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L39" t="n">
         <v>230.4102229060632</v>
       </c>
       <c r="M39" t="n">
-        <v>268.8778623832596</v>
+        <v>268.8778623832597</v>
       </c>
       <c r="N39" t="n">
-        <v>275.9942593294948</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O39" t="n">
         <v>252.4808274312738</v>
@@ -33994,19 +33994,19 @@
         <v>202.6381231165373</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.4582189164339</v>
+        <v>135.458218916434</v>
       </c>
       <c r="R39" t="n">
-        <v>65.88601384624242</v>
+        <v>65.88601384624245</v>
       </c>
       <c r="S39" t="n">
-        <v>19.71088362806134</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T39" t="n">
-        <v>4.277285018698555</v>
+        <v>4.277285018698556</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06981422772630944</v>
+        <v>0.06981422772630946</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8896545303702378</v>
+        <v>0.889654530370238</v>
       </c>
       <c r="H40" t="n">
-        <v>7.90983755183721</v>
+        <v>7.909837551837214</v>
       </c>
       <c r="I40" t="n">
-        <v>26.75433805877043</v>
+        <v>26.75433805877044</v>
       </c>
       <c r="J40" t="n">
-        <v>62.8985752971758</v>
+        <v>62.89857529717582</v>
       </c>
       <c r="K40" t="n">
         <v>103.3616808921058</v>
@@ -34073,19 +34073,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.49643526582055</v>
+        <v>74.49643526582058</v>
       </c>
       <c r="R40" t="n">
-        <v>40.00210279282904</v>
+        <v>40.00210279282906</v>
       </c>
       <c r="S40" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T40" t="n">
-        <v>3.801251175218288</v>
+        <v>3.801251175218289</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04852661074746757</v>
+        <v>0.04852661074746759</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.98333216455311</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H41" t="n">
-        <v>20.31180053022954</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I41" t="n">
-        <v>76.46241327393385</v>
+        <v>76.46241327393386</v>
       </c>
       <c r="J41" t="n">
         <v>168.3328383012397</v>
@@ -34137,31 +34137,31 @@
         <v>252.2872888267729</v>
       </c>
       <c r="L41" t="n">
-        <v>312.9846905577152</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M41" t="n">
-        <v>348.2557739390865</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N41" t="n">
-        <v>353.8909164516231</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O41" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P41" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.1775612848848</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R41" t="n">
         <v>124.5854890816094</v>
       </c>
       <c r="S41" t="n">
-        <v>45.19518169975404</v>
+        <v>45.19518169975405</v>
       </c>
       <c r="T41" t="n">
-        <v>8.682036550331242</v>
+        <v>8.682036550331246</v>
       </c>
       <c r="U41" t="n">
         <v>0.1586665731642488</v>
@@ -34204,25 +34204,25 @@
         <v>1.061176261439903</v>
       </c>
       <c r="H42" t="n">
-        <v>10.24872863022222</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I42" t="n">
-        <v>36.53611251010193</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J42" t="n">
-        <v>100.2578852968287</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K42" t="n">
-        <v>75.41463822445456</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L42" t="n">
         <v>230.4102229060632</v>
       </c>
       <c r="M42" t="n">
-        <v>268.8778623832596</v>
+        <v>268.8778623832597</v>
       </c>
       <c r="N42" t="n">
-        <v>275.9942593294948</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O42" t="n">
         <v>252.4808274312738</v>
@@ -34231,19 +34231,19 @@
         <v>202.6381231165373</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.4582189164339</v>
+        <v>39.51616232758602</v>
       </c>
       <c r="R42" t="n">
-        <v>65.88601384624242</v>
+        <v>65.88601384624245</v>
       </c>
       <c r="S42" t="n">
-        <v>19.71088362806134</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T42" t="n">
-        <v>4.277285018698555</v>
+        <v>4.277285018698556</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06981422772630944</v>
+        <v>0.06981422772630946</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8896545303702378</v>
+        <v>0.889654530370238</v>
       </c>
       <c r="H43" t="n">
-        <v>7.90983755183721</v>
+        <v>7.909837551837214</v>
       </c>
       <c r="I43" t="n">
-        <v>26.75433805877043</v>
+        <v>26.75433805877044</v>
       </c>
       <c r="J43" t="n">
-        <v>62.8985752971758</v>
+        <v>62.89857529717582</v>
       </c>
       <c r="K43" t="n">
         <v>103.3616808921058</v>
@@ -34310,19 +34310,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.49643526582055</v>
+        <v>74.49643526582058</v>
       </c>
       <c r="R43" t="n">
-        <v>40.00210279282904</v>
+        <v>40.00210279282906</v>
       </c>
       <c r="S43" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T43" t="n">
-        <v>3.801251175218288</v>
+        <v>3.801251175218289</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04852661074746757</v>
+        <v>0.04852661074746759</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.98333216455311</v>
+        <v>1.983332164553111</v>
       </c>
       <c r="H44" t="n">
-        <v>20.31180053022954</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I44" t="n">
-        <v>76.46241327393385</v>
+        <v>76.46241327393388</v>
       </c>
       <c r="J44" t="n">
         <v>168.3328383012397</v>
       </c>
       <c r="K44" t="n">
-        <v>252.2872888267729</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L44" t="n">
-        <v>312.9846905577152</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M44" t="n">
-        <v>348.2557739390865</v>
+        <v>348.2557739390867</v>
       </c>
       <c r="N44" t="n">
-        <v>353.8909164516231</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O44" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P44" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.1775612848848</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R44" t="n">
-        <v>124.5854890816094</v>
+        <v>124.5854890816095</v>
       </c>
       <c r="S44" t="n">
-        <v>45.19518169975404</v>
+        <v>45.19518169975406</v>
       </c>
       <c r="T44" t="n">
-        <v>8.682036550331242</v>
+        <v>8.682036550331247</v>
       </c>
       <c r="U44" t="n">
         <v>0.1586665731642488</v>
@@ -34441,46 +34441,46 @@
         <v>1.061176261439903</v>
       </c>
       <c r="H45" t="n">
-        <v>10.24872863022222</v>
+        <v>10.24872863022223</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J45" t="n">
-        <v>40.85194121808301</v>
+        <v>4.315828707980501</v>
       </c>
       <c r="K45" t="n">
-        <v>171.3566948133022</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L45" t="n">
-        <v>230.4102229060632</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M45" t="n">
-        <v>268.8778623832596</v>
+        <v>268.8778623832597</v>
       </c>
       <c r="N45" t="n">
-        <v>275.9942593294948</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O45" t="n">
-        <v>252.4808274312738</v>
+        <v>252.4808274312739</v>
       </c>
       <c r="P45" t="n">
-        <v>202.6381231165373</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.4582189164339</v>
+        <v>135.458218916434</v>
       </c>
       <c r="R45" t="n">
-        <v>65.88601384624242</v>
+        <v>65.88601384624245</v>
       </c>
       <c r="S45" t="n">
-        <v>19.71088362806134</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T45" t="n">
-        <v>4.277285018698555</v>
+        <v>4.277285018698556</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06981422772630944</v>
+        <v>0.06981422772630946</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8896545303702378</v>
+        <v>0.8896545303702381</v>
       </c>
       <c r="H46" t="n">
-        <v>7.90983755183721</v>
+        <v>7.909837551837215</v>
       </c>
       <c r="I46" t="n">
-        <v>26.75433805877043</v>
+        <v>26.75433805877044</v>
       </c>
       <c r="J46" t="n">
-        <v>62.8985752971758</v>
+        <v>62.89857529717583</v>
       </c>
       <c r="K46" t="n">
         <v>103.3616808921058</v>
@@ -34535,31 +34535,31 @@
         <v>132.2673653606807</v>
       </c>
       <c r="M46" t="n">
-        <v>139.4573915197637</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N46" t="n">
-        <v>136.1414064520202</v>
+        <v>136.1414064520203</v>
       </c>
       <c r="O46" t="n">
-        <v>125.7486239836042</v>
+        <v>125.7486239836043</v>
       </c>
       <c r="P46" t="n">
         <v>107.5996715640513</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.49643526582055</v>
+        <v>74.49643526582058</v>
       </c>
       <c r="R46" t="n">
-        <v>40.00210279282904</v>
+        <v>40.00210279282906</v>
       </c>
       <c r="S46" t="n">
         <v>15.50425213381587</v>
       </c>
       <c r="T46" t="n">
-        <v>3.801251175218288</v>
+        <v>3.801251175218289</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04852661074746757</v>
+        <v>0.04852661074746759</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35418,13 +35418,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35491,10 +35491,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
@@ -35570,13 +35570,13 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L13" t="n">
-        <v>375.0226908429312</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
         <v>575.5128433954892</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916792</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562325</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35746,7 +35746,7 @@
         <v>191.6912126917234</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366647</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>147.5459694702536</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916724</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>219.1019543794486</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954891</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,28 +36117,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785924</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J20" t="n">
         <v>159.2391669125711</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766675</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816036</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36199,16 +36199,16 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562344</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108048</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811315</v>
@@ -36220,7 +36220,7 @@
         <v>191.6912126917234</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002363</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>354.743712975739</v>
       </c>
       <c r="M22" t="n">
-        <v>213.4067143921434</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
         <v>118.95543570481</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027017</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,28 +36354,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.04979179480245</v>
+        <v>76.04979179480246</v>
       </c>
       <c r="J23" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K23" t="n">
-        <v>252.2872888267727</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L23" t="n">
-        <v>312.9846905577152</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M23" t="n">
-        <v>348.2557739390865</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N23" t="n">
-        <v>353.8909164516231</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O23" t="n">
         <v>334.1691572403481</v>
       </c>
       <c r="P23" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q23" t="n">
         <v>214.1775612848846</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>36.53611251010193</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J24" t="n">
-        <v>4.315828707981083</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3566948133022</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L24" t="n">
         <v>230.4102229060632</v>
@@ -36457,7 +36457,7 @@
         <v>202.6381231165374</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.4582189164339</v>
+        <v>39.51616232758602</v>
       </c>
       <c r="R24" t="n">
         <v>65.88601384624235</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>62.89857529717581</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K25" t="n">
         <v>103.3616808921058</v>
       </c>
       <c r="L25" t="n">
-        <v>269.6769686615169</v>
+        <v>132.2673653606807</v>
       </c>
       <c r="M25" t="n">
-        <v>603.5825098843223</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N25" t="n">
-        <v>582.8674702476208</v>
+        <v>208.9145135580829</v>
       </c>
       <c r="O25" t="n">
-        <v>125.7486239836041</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P25" t="n">
         <v>458.6167361805581</v>
@@ -36539,7 +36539,7 @@
         <v>244.3881270479742</v>
       </c>
       <c r="R25" t="n">
-        <v>18.79845971114721</v>
+        <v>18.79845971114722</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.04979179480245</v>
+        <v>76.04979179480247</v>
       </c>
       <c r="J26" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012395</v>
       </c>
       <c r="K26" t="n">
-        <v>252.2872888267729</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L26" t="n">
-        <v>312.9846905577151</v>
+        <v>312.9846905577156</v>
       </c>
       <c r="M26" t="n">
         <v>348.2557739390866</v>
       </c>
       <c r="N26" t="n">
-        <v>353.8909164516231</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O26" t="n">
         <v>334.1691572403481</v>
       </c>
       <c r="P26" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.1775612848846</v>
+        <v>214.1775612848851</v>
       </c>
       <c r="R26" t="n">
         <v>124.5854890816095</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J27" t="n">
-        <v>40.85194121808301</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K27" t="n">
-        <v>171.3566948133022</v>
+        <v>75.41463822445402</v>
       </c>
       <c r="L27" t="n">
-        <v>230.4102229060632</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M27" t="n">
-        <v>268.8778623832596</v>
+        <v>268.8778623832597</v>
       </c>
       <c r="N27" t="n">
-        <v>275.9942593294948</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O27" t="n">
         <v>252.4808274312738</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>150.3528027362565</v>
+        <v>62.89857529717583</v>
       </c>
       <c r="K28" t="n">
-        <v>104.7176286066327</v>
+        <v>103.3616808921058</v>
       </c>
       <c r="L28" t="n">
-        <v>554.7015893687221</v>
+        <v>366.6773925088835</v>
       </c>
       <c r="M28" t="n">
-        <v>603.5825098843223</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N28" t="n">
-        <v>136.1414064520202</v>
+        <v>582.867470247621</v>
       </c>
       <c r="O28" t="n">
         <v>549.6569565348987</v>
@@ -36773,10 +36773,10 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q28" t="n">
-        <v>244.3881270479742</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R28" t="n">
-        <v>18.79845971114721</v>
+        <v>18.79845971114723</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.04979179480245</v>
+        <v>76.04979179480246</v>
       </c>
       <c r="J29" t="n">
         <v>168.3328383012397</v>
       </c>
       <c r="K29" t="n">
-        <v>252.2872888267729</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L29" t="n">
-        <v>312.9846905577151</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M29" t="n">
         <v>348.2557739390866</v>
@@ -36846,7 +36846,7 @@
         <v>353.8909164516231</v>
       </c>
       <c r="O29" t="n">
-        <v>334.1691572403479</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P29" t="n">
         <v>285.2056444279433</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>36.53611251010192</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J30" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707980728</v>
       </c>
       <c r="K30" t="n">
-        <v>171.3566948133022</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L30" t="n">
         <v>230.4102229060632</v>
       </c>
       <c r="M30" t="n">
-        <v>268.8778623832595</v>
+        <v>268.8778623832597</v>
       </c>
       <c r="N30" t="n">
-        <v>180.0522027406471</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O30" t="n">
         <v>252.4808274312738</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>62.8985752971758</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K31" t="n">
-        <v>265.0631239805007</v>
+        <v>250.3174806012267</v>
       </c>
       <c r="L31" t="n">
-        <v>554.7015893687221</v>
+        <v>132.2673653606807</v>
       </c>
       <c r="M31" t="n">
-        <v>603.5825098843223</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N31" t="n">
-        <v>136.1414064520202</v>
+        <v>582.867470247621</v>
       </c>
       <c r="O31" t="n">
-        <v>125.7486239836041</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P31" t="n">
-        <v>458.6167361805581</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q31" t="n">
-        <v>244.3881270479742</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R31" t="n">
-        <v>18.79845971114721</v>
+        <v>18.79845971114722</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.04979179480245</v>
+        <v>76.04979179480246</v>
       </c>
       <c r="J32" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K32" t="n">
-        <v>252.2872888267729</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L32" t="n">
-        <v>312.984690557715</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M32" t="n">
         <v>348.2557739390866</v>
       </c>
       <c r="N32" t="n">
-        <v>353.8909164516231</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O32" t="n">
-        <v>334.1691572403479</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P32" t="n">
         <v>285.2056444279433</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>36.53611251010193</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J33" t="n">
-        <v>100.2578852968287</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K33" t="n">
-        <v>171.3566948133022</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L33" t="n">
-        <v>134.4681663172155</v>
+        <v>134.4681663172152</v>
       </c>
       <c r="M33" t="n">
-        <v>268.8778623832596</v>
+        <v>268.8778623832597</v>
       </c>
       <c r="N33" t="n">
-        <v>275.9942593294948</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O33" t="n">
         <v>252.4808274312738</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.89857529717581</v>
+        <v>62.89857529717582</v>
       </c>
       <c r="K34" t="n">
-        <v>103.3616808921058</v>
+        <v>380.8954733882024</v>
       </c>
       <c r="L34" t="n">
-        <v>132.2673653606806</v>
+        <v>554.7015893687221</v>
       </c>
       <c r="M34" t="n">
-        <v>603.5825098843223</v>
+        <v>233.7335197074813</v>
       </c>
       <c r="N34" t="n">
-        <v>582.8674702476206</v>
+        <v>136.1414064520202</v>
       </c>
       <c r="O34" t="n">
         <v>549.6569565348987</v>
       </c>
       <c r="P34" t="n">
-        <v>172.1180069300999</v>
+        <v>458.6167361805581</v>
       </c>
       <c r="Q34" t="n">
-        <v>244.3881270479742</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R34" t="n">
-        <v>18.79845971114721</v>
+        <v>18.79845971114722</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.04979179480245</v>
+        <v>76.04979179480246</v>
       </c>
       <c r="J35" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K35" t="n">
-        <v>252.2872888267727</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L35" t="n">
-        <v>312.9846905577152</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M35" t="n">
-        <v>348.2557739390865</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N35" t="n">
         <v>353.8909164516231</v>
@@ -37323,13 +37323,13 @@
         <v>334.1691572403481</v>
       </c>
       <c r="P35" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.1775612848846</v>
+        <v>214.1775612848851</v>
       </c>
       <c r="R35" t="n">
-        <v>124.5854890816095</v>
+        <v>124.585489081609</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>36.53611251010193</v>
+        <v>6.480069767496232</v>
       </c>
       <c r="J36" t="n">
-        <v>100.2578852968287</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K36" t="n">
-        <v>75.41463822445456</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L36" t="n">
-        <v>230.4102229060632</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M36" t="n">
         <v>268.8778623832596</v>
       </c>
       <c r="N36" t="n">
-        <v>275.9942593294948</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O36" t="n">
         <v>252.4808274312738</v>
@@ -37408,7 +37408,7 @@
         <v>135.4582189164339</v>
       </c>
       <c r="R36" t="n">
-        <v>65.88601384624235</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>62.89857529717581</v>
+        <v>62.89857529717582</v>
       </c>
       <c r="K37" t="n">
         <v>103.3616808921058</v>
       </c>
       <c r="L37" t="n">
-        <v>132.2673653606806</v>
+        <v>366.6773925088826</v>
       </c>
       <c r="M37" t="n">
-        <v>486.9754724160175</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N37" t="n">
-        <v>582.8674702476208</v>
+        <v>582.867470247621</v>
       </c>
       <c r="O37" t="n">
         <v>549.6569565348987</v>
       </c>
       <c r="P37" t="n">
-        <v>458.6167361805581</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q37" t="n">
         <v>74.49643526582076</v>
       </c>
       <c r="R37" t="n">
-        <v>18.79845971114721</v>
+        <v>18.79845971114722</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,25 +37539,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.04979179480245</v>
+        <v>76.04979179480246</v>
       </c>
       <c r="J38" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K38" t="n">
-        <v>252.2872888267729</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L38" t="n">
         <v>312.9846905577152</v>
       </c>
       <c r="M38" t="n">
-        <v>348.2557739390863</v>
+        <v>348.2557739390867</v>
       </c>
       <c r="N38" t="n">
         <v>353.8909164516231</v>
       </c>
       <c r="O38" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P38" t="n">
         <v>285.2056444279433</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J39" t="n">
-        <v>40.85194121808302</v>
+        <v>4.315828707980714</v>
       </c>
       <c r="K39" t="n">
-        <v>171.3566948133022</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L39" t="n">
         <v>230.4102229060632</v>
       </c>
       <c r="M39" t="n">
-        <v>268.8778623832596</v>
+        <v>268.8778623832597</v>
       </c>
       <c r="N39" t="n">
-        <v>275.9942593294948</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O39" t="n">
         <v>252.4808274312738</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>62.8985752971758</v>
+        <v>62.89857529717582</v>
       </c>
       <c r="K40" t="n">
         <v>103.3616808921058</v>
       </c>
       <c r="L40" t="n">
-        <v>554.7015893687221</v>
+        <v>366.6773925088835</v>
       </c>
       <c r="M40" t="n">
-        <v>603.5825098843223</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N40" t="n">
-        <v>582.8674702476208</v>
+        <v>582.867470247621</v>
       </c>
       <c r="O40" t="n">
-        <v>361.6327596750587</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P40" t="n">
         <v>107.5996715640513</v>
@@ -37724,7 +37724,7 @@
         <v>74.49643526582076</v>
       </c>
       <c r="R40" t="n">
-        <v>18.79845971114721</v>
+        <v>18.79845971114722</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.04979179480245</v>
+        <v>76.04979179480246</v>
       </c>
       <c r="J41" t="n">
         <v>168.3328383012397</v>
       </c>
       <c r="K41" t="n">
-        <v>252.2872888267729</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L41" t="n">
-        <v>312.9846905577151</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M41" t="n">
         <v>348.2557739390866</v>
@@ -37800,10 +37800,10 @@
         <v>285.2056444279433</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.1775612848846</v>
+        <v>214.1775612848851</v>
       </c>
       <c r="R41" t="n">
-        <v>124.5854890816095</v>
+        <v>124.585489081609</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>36.53611251010193</v>
       </c>
       <c r="J42" t="n">
-        <v>100.2578852968287</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K42" t="n">
-        <v>75.41463822445456</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L42" t="n">
         <v>230.4102229060632</v>
@@ -37879,7 +37879,7 @@
         <v>202.6381231165374</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.4582189164339</v>
+        <v>39.51616232758602</v>
       </c>
       <c r="R42" t="n">
         <v>65.88601384624235</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>62.89857529717581</v>
+        <v>62.89857529717582</v>
       </c>
       <c r="K43" t="n">
         <v>103.3616808921058</v>
       </c>
       <c r="L43" t="n">
-        <v>132.2673653606806</v>
+        <v>366.6773925088826</v>
       </c>
       <c r="M43" t="n">
-        <v>603.5825098843223</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N43" t="n">
-        <v>582.8674702476206</v>
+        <v>582.867470247621</v>
       </c>
       <c r="O43" t="n">
-        <v>433.0499190665939</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P43" t="n">
-        <v>458.6167361805581</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q43" t="n">
         <v>74.49643526582076</v>
       </c>
       <c r="R43" t="n">
-        <v>18.79845971114721</v>
+        <v>18.79845971114722</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.04979179480245</v>
+        <v>76.04979179480247</v>
       </c>
       <c r="J44" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012395</v>
       </c>
       <c r="K44" t="n">
-        <v>252.2872888267729</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L44" t="n">
-        <v>312.984690557715</v>
+        <v>312.9846905577156</v>
       </c>
       <c r="M44" t="n">
         <v>348.2557739390866</v>
       </c>
       <c r="N44" t="n">
-        <v>353.8909164516231</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O44" t="n">
-        <v>334.1691572403479</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P44" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.1775612848846</v>
+        <v>214.1775612848851</v>
       </c>
       <c r="R44" t="n">
         <v>124.5854890816095</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J45" t="n">
-        <v>40.85194121808301</v>
+        <v>4.315828707980501</v>
       </c>
       <c r="K45" t="n">
-        <v>171.3566948133022</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L45" t="n">
-        <v>230.4102229060632</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M45" t="n">
-        <v>268.8778623832596</v>
+        <v>268.8778623832597</v>
       </c>
       <c r="N45" t="n">
-        <v>275.9942593294948</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O45" t="n">
         <v>252.4808274312738</v>
@@ -38177,7 +38177,7 @@
         <v>150.3528027362565</v>
       </c>
       <c r="K46" t="n">
-        <v>380.8954733882024</v>
+        <v>380.8954733882023</v>
       </c>
       <c r="L46" t="n">
         <v>554.7015893687221</v>
@@ -38189,16 +38189,16 @@
         <v>136.1414064520202</v>
       </c>
       <c r="O46" t="n">
-        <v>443.3708035354823</v>
+        <v>125.7486239836041</v>
       </c>
       <c r="P46" t="n">
-        <v>107.5996715640513</v>
+        <v>255.3301593337774</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.49643526582076</v>
+        <v>244.3881270479742</v>
       </c>
       <c r="R46" t="n">
-        <v>18.79845971114721</v>
+        <v>18.79845971114723</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
